--- a/Networks/Parte3/errors.xlsx
+++ b/Networks/Parte3/errors.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,14 +441,14 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>train_mse</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>train_error</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>train_mse</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>train_f1</t>
@@ -461,12 +461,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>val_mse</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>val_error</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>val_mse</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -485,28 +485,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2640223940776458</v>
+        <v>0.00719066897270123</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00854306825249382</v>
+        <v>0.2377661911560484</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9754514922214078</v>
+        <v>0.9792773352631228</v>
       </c>
       <c r="E2" t="n">
+        <v>0.97936</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.008092599011878284</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2584310308223076</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9755509086559246</v>
+      </c>
+      <c r="I2" t="n">
         <v>0.9756</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.2802025364999634</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.009311702208225737</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.9723078723847602</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.9724</v>
       </c>
     </row>
     <row r="3">
@@ -514,28 +514,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2334551833759693</v>
+        <v>0.006661745117116677</v>
       </c>
       <c r="C3" t="n">
-        <v>0.007832426989684175</v>
+        <v>0.2064451522975317</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9758085000407252</v>
+        <v>0.9800524717721903</v>
       </c>
       <c r="E3" t="n">
-        <v>0.97592</v>
+        <v>0.98008</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2582116077266144</v>
+        <v>0.007631302115790006</v>
       </c>
       <c r="G3" t="n">
-        <v>0.009031495837923438</v>
+        <v>0.2297978548173075</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9715453715081751</v>
+        <v>0.9783703083179733</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9716</v>
+        <v>0.9784</v>
       </c>
     </row>
     <row r="4">
@@ -543,28 +543,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2170903875581388</v>
+        <v>0.006727459646063851</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007375208861281535</v>
+        <v>0.2015333221825024</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9776058545116235</v>
+        <v>0.9799800937376896</v>
       </c>
       <c r="E4" t="n">
-        <v>0.97768</v>
+        <v>0.98</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2541562319416024</v>
+        <v>0.007339605706612966</v>
       </c>
       <c r="G4" t="n">
-        <v>0.009085678329573023</v>
+        <v>0.2192452284312782</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9719634166547159</v>
+        <v>0.9775574130899332</v>
       </c>
       <c r="I4" t="n">
-        <v>0.972</v>
+        <v>0.9776</v>
       </c>
     </row>
     <row r="5">
@@ -572,28 +572,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2131221860872907</v>
+        <v>0.00677028144389445</v>
       </c>
       <c r="C5" t="n">
-        <v>0.007246674366038697</v>
+        <v>0.1994279499624655</v>
       </c>
       <c r="D5" t="n">
-        <v>0.97809973304442</v>
+        <v>0.9791734595743292</v>
       </c>
       <c r="E5" t="n">
-        <v>0.97816</v>
+        <v>0.9792</v>
       </c>
       <c r="F5" t="n">
-        <v>0.25706058008775</v>
+        <v>0.007174630614212637</v>
       </c>
       <c r="G5" t="n">
-        <v>0.009125205205072</v>
+        <v>0.2149695365527475</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9743600098113006</v>
+        <v>0.9783609987820914</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9744</v>
+        <v>0.9784</v>
       </c>
     </row>
     <row r="6">
@@ -601,28 +601,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2113972295619426</v>
+        <v>0.006656303376290434</v>
       </c>
       <c r="C6" t="n">
-        <v>0.007158181321190456</v>
+        <v>0.1954736790283916</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9787451382890384</v>
+        <v>0.9790112422601983</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9788</v>
+        <v>0.97904</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2590966062346147</v>
+        <v>0.006799010491074104</v>
       </c>
       <c r="G6" t="n">
-        <v>0.009095706239597014</v>
+        <v>0.2092921922807326</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9735593346484657</v>
+        <v>0.9799628345351655</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9736</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="7">
@@ -630,28 +630,115 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2083650285964199</v>
+        <v>0.006253555702321091</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007021413107456105</v>
+        <v>0.185870238247509</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9788305909174341</v>
+        <v>0.9803841823359026</v>
       </c>
       <c r="E7" t="n">
-        <v>0.97888</v>
+        <v>0.9804</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2595085207303606</v>
+        <v>0.006889426963649763</v>
       </c>
       <c r="G7" t="n">
-        <v>0.009037360556161963</v>
+        <v>0.2080006010056012</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9731617960575309</v>
+        <v>0.9799833104683608</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9732</v>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.006179766121521238</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1839690222892059</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9808668293971442</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.98088</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.006994145380501735</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.2091708980144554</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.9783858745519416</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.9784</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.006120652263046206</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.182574116300582</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.981191708597717</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9812</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.007052139944764378</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.2093127987173772</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.9787862701407879</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.9788</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.006051887222218126</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1804838770226554</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9817519373791544</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.98176</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.007003126159454832</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.2070805500080204</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.9787862701407879</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.9788</v>
       </c>
     </row>
   </sheetData>
@@ -665,7 +752,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,14 +763,14 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>train_mse</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>train_error</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>train_mse</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>train_f1</t>
@@ -696,12 +783,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>val_mse</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>val_error</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>val_mse</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -720,25 +807,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1612036670550506</v>
+        <v>0.005178353762994766</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005448640651879557</v>
+        <v>0.152725617291144</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9847547836995797</v>
+        <v>0.9849124286518195</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9848</v>
+        <v>0.9849599999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1830213928993069</v>
+        <v>0.006352624196453481</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00644287494984282</v>
+        <v>0.1777480949850393</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9819353567159828</v>
+        <v>0.9819455308081011</v>
       </c>
       <c r="I2" t="n">
         <v>0.982</v>
@@ -749,28 +836,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1332966701266331</v>
+        <v>0.004395082369269846</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00454300196719283</v>
+        <v>0.128555013101747</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9867759051031223</v>
+        <v>0.9866204425396164</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9868</v>
+        <v>0.98664</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1598699554446009</v>
+        <v>0.005558686656377041</v>
       </c>
       <c r="G3" t="n">
-        <v>0.005661109943876124</v>
+        <v>0.1550502948898264</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9839659519755609</v>
+        <v>0.9843661479965551</v>
       </c>
       <c r="I3" t="n">
-        <v>0.984</v>
+        <v>0.9844000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -778,28 +865,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1248530334975823</v>
+        <v>0.004050183449464674</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004253066866249445</v>
+        <v>0.1189142563931473</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9878252940235598</v>
+        <v>0.9881487023263381</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9878400000000001</v>
+        <v>0.98816</v>
       </c>
       <c r="F4" t="n">
-        <v>0.151582052581074</v>
+        <v>0.005279412826778005</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00533626752405048</v>
+        <v>0.1459754861905066</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9839668546312184</v>
+        <v>0.9843730002908233</v>
       </c>
       <c r="I4" t="n">
-        <v>0.984</v>
+        <v>0.9844000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -807,28 +894,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1192204457940919</v>
+        <v>0.003864896761551348</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00404680232401879</v>
+        <v>0.1131296498336125</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9883071903746361</v>
+        <v>0.9888723730822989</v>
       </c>
       <c r="E5" t="n">
-        <v>0.98832</v>
+        <v>0.98888</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1446487105365912</v>
+        <v>0.00514431157848786</v>
       </c>
       <c r="G5" t="n">
-        <v>0.005087078346143412</v>
+        <v>0.1406095676744991</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9851729828220552</v>
+        <v>0.9843730002908233</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9852</v>
+        <v>0.9844000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -836,25 +923,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1164661615970955</v>
+        <v>0.003758444120967781</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003977163752673484</v>
+        <v>0.1093956291458595</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9882272691796125</v>
+        <v>0.9890337642522248</v>
       </c>
       <c r="E6" t="n">
-        <v>0.98824</v>
+        <v>0.98904</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1409150176478293</v>
+        <v>0.005036671767667061</v>
       </c>
       <c r="G6" t="n">
-        <v>0.004943145211964816</v>
+        <v>0.1365660215434034</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9855710038376605</v>
+        <v>0.9855805534896633</v>
       </c>
       <c r="I6" t="n">
         <v>0.9856</v>
@@ -865,28 +952,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1122892825835437</v>
+        <v>0.003695740952374339</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003875612087950336</v>
+        <v>0.1068193050389008</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9882282246041711</v>
+        <v>0.9898323532283064</v>
       </c>
       <c r="E7" t="n">
-        <v>0.98824</v>
+        <v>0.9898400000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1378761463288243</v>
+        <v>0.004923284995057814</v>
       </c>
       <c r="G7" t="n">
-        <v>0.004901832152902319</v>
+        <v>0.1330384319156767</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9855726720375499</v>
+        <v>0.985979777779199</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9856</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="8">
@@ -894,25 +981,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1099206027947359</v>
+        <v>0.003668792425980269</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003817540269819974</v>
+        <v>0.1050723618087199</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9883906719952368</v>
+        <v>0.9894320706066908</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9883999999999999</v>
+        <v>0.98944</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1358797260755584</v>
+        <v>0.004811438422754786</v>
       </c>
       <c r="G8" t="n">
-        <v>0.004853941188974782</v>
+        <v>0.1298321771877158</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9863730477385579</v>
+        <v>0.9863783162529584</v>
       </c>
       <c r="I8" t="n">
         <v>0.9864000000000001</v>
@@ -923,28 +1010,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1080232667162451</v>
+        <v>0.003656685722325261</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003771902099499764</v>
+        <v>0.103628588444234</v>
       </c>
       <c r="D9" t="n">
-        <v>0.988471757657329</v>
+        <v>0.9892729371689298</v>
       </c>
       <c r="E9" t="n">
-        <v>0.98848</v>
+        <v>0.98928</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1339533035859771</v>
+        <v>0.004712456822332077</v>
       </c>
       <c r="G9" t="n">
-        <v>0.004804727103351249</v>
+        <v>0.1266288936033546</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9863770569353816</v>
+        <v>0.9867790973017389</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9864000000000001</v>
+        <v>0.9868</v>
       </c>
     </row>
     <row r="10">
@@ -952,28 +1039,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1064747137276122</v>
+        <v>0.003626317719297044</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003735188843878153</v>
+        <v>0.1018293494971746</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9883123676707076</v>
+        <v>0.9894338274316471</v>
       </c>
       <c r="E10" t="n">
-        <v>0.98832</v>
+        <v>0.98944</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1322925908654846</v>
+        <v>0.004607558144570274</v>
       </c>
       <c r="G10" t="n">
-        <v>0.004764136955576194</v>
+        <v>0.1234664263677404</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9863770569353816</v>
+        <v>0.9867790973017389</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9864000000000001</v>
+        <v>0.9868</v>
       </c>
     </row>
     <row r="11">
@@ -981,28 +1068,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1052125646750824</v>
+        <v>0.003582374665085578</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003705343610542294</v>
+        <v>0.09988457359829141</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9885535902297065</v>
+        <v>0.9895937792297184</v>
       </c>
       <c r="E11" t="n">
-        <v>0.98856</v>
+        <v>0.9896</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1308310696351371</v>
+        <v>0.004503374687221966</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00473007751974921</v>
+        <v>0.1205434089048587</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9863770569353816</v>
+        <v>0.9867778449983019</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9864000000000001</v>
+        <v>0.9868</v>
       </c>
     </row>
     <row r="12">
@@ -1010,28 +1097,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1041512400769157</v>
+        <v>0.003533922571687448</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003679833572987943</v>
+        <v>0.09804993495826127</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9885519826718138</v>
+        <v>0.989754969369595</v>
       </c>
       <c r="E12" t="n">
-        <v>0.98856</v>
+        <v>0.98976</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1295075798026132</v>
+        <v>0.004408217076692772</v>
       </c>
       <c r="G12" t="n">
-        <v>0.004700030589379286</v>
+        <v>0.117989801026049</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9855752824582538</v>
+        <v>0.9867778449983019</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9856</v>
+        <v>0.9868</v>
       </c>
     </row>
     <row r="13">
@@ -1039,28 +1126,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.103200812001824</v>
+        <v>0.003484618314872056</v>
       </c>
       <c r="C13" t="n">
-        <v>0.003655965842370461</v>
+        <v>0.09638377620479434</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9886310066240233</v>
+        <v>0.989995560000877</v>
       </c>
       <c r="E13" t="n">
-        <v>0.98864</v>
+        <v>0.99</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1283465673269745</v>
+        <v>0.004325366158672176</v>
       </c>
       <c r="G13" t="n">
-        <v>0.004675042819923175</v>
+        <v>0.1158313779546688</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9855752824582538</v>
+        <v>0.9875830961415563</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9856</v>
+        <v>0.9876</v>
       </c>
     </row>
     <row r="14">
@@ -1068,28 +1155,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1023026597820426</v>
+        <v>0.003438781526448431</v>
       </c>
       <c r="C14" t="n">
-        <v>0.003632196258769591</v>
+        <v>0.09490921939126407</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9889510852710499</v>
+        <v>0.9901554650300159</v>
       </c>
       <c r="E14" t="n">
-        <v>0.98896</v>
+        <v>0.99016</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1274017526543881</v>
+        <v>0.00425993199164693</v>
       </c>
       <c r="G14" t="n">
-        <v>0.004656494030345371</v>
+        <v>0.1141042045805563</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9863788585574995</v>
+        <v>0.9875830961415563</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9864000000000001</v>
+        <v>0.9876</v>
       </c>
     </row>
     <row r="15">
@@ -1097,28 +1184,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1014435923671711</v>
+        <v>0.00339989594125419</v>
       </c>
       <c r="C15" t="n">
-        <v>0.003608499967680029</v>
+        <v>0.09363585497504029</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9893519114308092</v>
+        <v>0.9902347748817337</v>
       </c>
       <c r="E15" t="n">
-        <v>0.98936</v>
+        <v>0.99024</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1266724335044452</v>
+        <v>0.004210792425360102</v>
       </c>
       <c r="G15" t="n">
-        <v>0.004642507624974793</v>
+        <v>0.1127386040825152</v>
       </c>
       <c r="H15" t="n">
-        <v>0.98637976884456</v>
+        <v>0.9875830961415563</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9864000000000001</v>
+        <v>0.9876</v>
       </c>
     </row>
     <row r="16">
@@ -1126,28 +1213,115 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1006259392902462</v>
+        <v>0.003368523938273796</v>
       </c>
       <c r="C16" t="n">
-        <v>0.003585140616738307</v>
+        <v>0.09256217709902163</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9893517878163911</v>
+        <v>0.9903149047969382</v>
       </c>
       <c r="E16" t="n">
-        <v>0.98936</v>
+        <v>0.99032</v>
       </c>
       <c r="F16" t="n">
-        <v>0.126093175710472</v>
+        <v>0.004173540257227645</v>
       </c>
       <c r="G16" t="n">
-        <v>0.004629502042867996</v>
+        <v>0.111651389592846</v>
       </c>
       <c r="H16" t="n">
-        <v>0.98637976884456</v>
+        <v>0.987581050153722</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9864000000000001</v>
+        <v>0.9876</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.003343074830612575</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.09165984961957012</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9903950022270459</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9903999999999999</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.004144384375104213</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.1107800613663923</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.9879802553337893</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.988</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.003321722592879417</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.09088918461046527</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9903150483944954</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.99032</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.004120801924832959</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.1100764720357566</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.9875766545493263</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.9876</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.00330304407794193</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.09021355437501362</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9902343415975512</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.99024</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.004101182494411495</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.109502961018242</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.9875766545493263</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.9876</v>
       </c>
     </row>
   </sheetData>
@@ -1172,14 +1346,14 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>train_mse</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>train_error</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>train_mse</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>train_f1</t>
@@ -1192,12 +1366,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>val_mse</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>val_error</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>val_mse</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1216,28 +1390,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1437420169116935</v>
+        <v>0.004821998423432355</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005105278773612575</v>
+        <v>0.1381355649428613</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9857204399183838</v>
+        <v>0.9862868726830214</v>
       </c>
       <c r="E2" t="n">
-        <v>0.98576</v>
+        <v>0.98632</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1676194698978789</v>
+        <v>0.005938164748319152</v>
       </c>
       <c r="G2" t="n">
-        <v>0.006113181596754262</v>
+        <v>0.163229511406305</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9827421649952081</v>
+        <v>0.9823589785617958</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9828</v>
+        <v>0.9824000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -1245,25 +1419,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1285440747841346</v>
+        <v>0.00426217873494684</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004617367923442183</v>
+        <v>0.1206850254068869</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9874168561751274</v>
+        <v>0.9877400620717912</v>
       </c>
       <c r="E3" t="n">
-        <v>0.98744</v>
+        <v>0.98776</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1556001147791518</v>
+        <v>0.005466436645875708</v>
       </c>
       <c r="G3" t="n">
-        <v>0.005722355807174535</v>
+        <v>0.1478195524078426</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9851617636325641</v>
+        <v>0.9851658132661479</v>
       </c>
       <c r="I3" t="n">
         <v>0.9852</v>
@@ -1274,25 +1448,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1188688597725093</v>
+        <v>0.003965765374034865</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00424131050888923</v>
+        <v>0.1125470054204144</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9880609756992187</v>
+        <v>0.9887050924058448</v>
       </c>
       <c r="E4" t="n">
-        <v>0.98808</v>
+        <v>0.98872</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1467000447640113</v>
+        <v>0.005161810712705415</v>
       </c>
       <c r="G4" t="n">
-        <v>0.005407675779424744</v>
+        <v>0.1393779047215305</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9847674017298448</v>
+        <v>0.9847714352958755</v>
       </c>
       <c r="I4" t="n">
         <v>0.9848</v>
@@ -1303,28 +1477,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1115609350966225</v>
+        <v>0.003771135829366636</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003964824622417974</v>
+        <v>0.107005797899065</v>
       </c>
       <c r="D5" t="n">
-        <v>0.988785538599633</v>
+        <v>0.988706744674358</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9888</v>
+        <v>0.98872</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1391409360421471</v>
+        <v>0.004906724865946927</v>
       </c>
       <c r="G5" t="n">
-        <v>0.005140998837882759</v>
+        <v>0.1328295923352473</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9847674017298448</v>
+        <v>0.9855738457465273</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9848</v>
+        <v>0.9856</v>
       </c>
     </row>
     <row r="6">
@@ -1332,28 +1506,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1060355789873433</v>
+        <v>0.003627992473278669</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003768308587583615</v>
+        <v>0.1026903510504009</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9891091125238584</v>
+        <v>0.9893490356016578</v>
       </c>
       <c r="E6" t="n">
-        <v>0.98912</v>
+        <v>0.98936</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1326609037639233</v>
+        <v>0.004703746493290132</v>
       </c>
       <c r="G6" t="n">
-        <v>0.004917405345592309</v>
+        <v>0.1276582045931378</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9847674017298448</v>
+        <v>0.9851726744255955</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9848</v>
+        <v>0.9852</v>
       </c>
     </row>
     <row r="7">
@@ -1361,28 +1535,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1024525640214211</v>
+        <v>0.003510844609716216</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003649948353884221</v>
+        <v>0.09911255423288652</v>
       </c>
       <c r="D7" t="n">
-        <v>0.989109634425729</v>
+        <v>0.9896712658610425</v>
       </c>
       <c r="E7" t="n">
-        <v>0.98912</v>
+        <v>0.98968</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1283021296981347</v>
+        <v>0.004539498156008923</v>
       </c>
       <c r="G7" t="n">
-        <v>0.004766464516555561</v>
+        <v>0.1235785163190575</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9847674017298448</v>
+        <v>0.9863795222518363</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9848</v>
+        <v>0.9864000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -1390,28 +1564,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.09975924648935933</v>
+        <v>0.003415232957636698</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003565373672355328</v>
+        <v>0.09616697513575259</v>
       </c>
       <c r="D8" t="n">
-        <v>0.989109539596758</v>
+        <v>0.9899925161337001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.98912</v>
+        <v>0.99</v>
       </c>
       <c r="F8" t="n">
-        <v>0.124892905736252</v>
+        <v>0.004404127037364686</v>
       </c>
       <c r="G8" t="n">
-        <v>0.004646292510350599</v>
+        <v>0.1204123502740767</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9847738382177372</v>
+        <v>0.9863795222518363</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9848</v>
+        <v>0.9864000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -1419,28 +1593,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0974749536167471</v>
+        <v>0.003339127043518929</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003495271491227463</v>
+        <v>0.09374690246520315</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9895116319911604</v>
+        <v>0.9902340675307731</v>
       </c>
       <c r="E9" t="n">
-        <v>0.98952</v>
+        <v>0.99024</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1218858478151627</v>
+        <v>0.00429237393522191</v>
       </c>
       <c r="G9" t="n">
-        <v>0.004535379539981727</v>
+        <v>0.1179567443565125</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9859791019158621</v>
+        <v>0.9867787262414597</v>
       </c>
       <c r="I9" t="n">
-        <v>0.986</v>
+        <v>0.9868</v>
       </c>
     </row>
     <row r="10">
@@ -1448,28 +1622,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0954062086355128</v>
+        <v>0.003277778088446172</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003431781852496308</v>
+        <v>0.09171183934002809</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9895122311269121</v>
+        <v>0.9903133667813018</v>
       </c>
       <c r="E10" t="n">
-        <v>0.98952</v>
+        <v>0.99032</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1191643077729089</v>
+        <v>0.004198121869257841</v>
       </c>
       <c r="G10" t="n">
-        <v>0.004426786707880759</v>
+        <v>0.1159808276582937</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9863803055266946</v>
+        <v>0.9871787266366838</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9864000000000001</v>
+        <v>0.9872</v>
       </c>
     </row>
     <row r="11">
@@ -1477,28 +1651,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09342091655403006</v>
+        <v>0.003226330497803603</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003369558179007648</v>
+        <v>0.08994455005791513</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9899143838839575</v>
+        <v>0.9903140764020328</v>
       </c>
       <c r="E11" t="n">
-        <v>0.98992</v>
+        <v>0.99032</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1166981308080007</v>
+        <v>0.004116328293989016</v>
       </c>
       <c r="G11" t="n">
-        <v>0.004320023155714915</v>
+        <v>0.1142935819666178</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9871795146996043</v>
+        <v>0.9879779274358848</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9872</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="12">
@@ -1506,28 +1680,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0914691878097332</v>
+        <v>0.003181295249271574</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003306800784753336</v>
+        <v>0.08836393382116194</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9899945105279437</v>
+        <v>0.9905546989163119</v>
       </c>
       <c r="E12" t="n">
-        <v>0.99</v>
+        <v>0.99056</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1144189695216968</v>
+        <v>0.004043728339461071</v>
       </c>
       <c r="G12" t="n">
-        <v>0.004217622009490208</v>
+        <v>0.1127623467220337</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9875806985632551</v>
+        <v>0.9879779274358848</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9876</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="13">
@@ -1535,28 +1709,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.08952542921426544</v>
+        <v>0.00314045785030117</v>
       </c>
       <c r="C13" t="n">
-        <v>0.003243242820887104</v>
+        <v>0.08691832805822609</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9901542965659211</v>
+        <v>0.9906355212749727</v>
       </c>
       <c r="E13" t="n">
-        <v>0.99016</v>
+        <v>0.99064</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1122463625696194</v>
+        <v>0.003978685259240764</v>
       </c>
       <c r="G13" t="n">
-        <v>0.004121861605821132</v>
+        <v>0.1113123761169789</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9887822258765766</v>
+        <v>0.9883791112995356</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9888</v>
+        <v>0.9883999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -1564,25 +1738,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0875017193864842</v>
+        <v>0.003102528934359311</v>
       </c>
       <c r="C14" t="n">
-        <v>0.003175997395491793</v>
+        <v>0.08557803553600596</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9904754884186086</v>
+        <v>0.9906359239569569</v>
       </c>
       <c r="E14" t="n">
-        <v>0.99048</v>
+        <v>0.99064</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1100284461481533</v>
+        <v>0.003920810732285342</v>
       </c>
       <c r="G14" t="n">
-        <v>0.004027109735025966</v>
+        <v>0.109920940299213</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9887805472623752</v>
+        <v>0.9887802778350848</v>
       </c>
       <c r="I14" t="n">
         <v>0.9888</v>
@@ -1593,28 +1767,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.08544060350214286</v>
+        <v>0.003066831799515425</v>
       </c>
       <c r="C15" t="n">
-        <v>0.003106289759787825</v>
+        <v>0.08432899938297876</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9905552799645686</v>
+        <v>0.9907158665928579</v>
       </c>
       <c r="E15" t="n">
-        <v>0.99056</v>
+        <v>0.99072</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1078250431950402</v>
+        <v>0.003870318041700318</v>
       </c>
       <c r="G15" t="n">
-        <v>0.003938385304580861</v>
+        <v>0.1086017676089933</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9887805472623752</v>
+        <v>0.9891847253244554</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9888</v>
+        <v>0.9892</v>
       </c>
     </row>
     <row r="16">
@@ -1622,25 +1796,25 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.08355685566317396</v>
+        <v>0.003033083916760395</v>
       </c>
       <c r="C16" t="n">
-        <v>0.003041932316645579</v>
+        <v>0.08316675310845506</v>
       </c>
       <c r="D16" t="n">
-        <v>0.990635525664037</v>
+        <v>0.9906359239569569</v>
       </c>
       <c r="E16" t="n">
         <v>0.99064</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1059004805370993</v>
+        <v>0.003827356173928398</v>
       </c>
       <c r="G16" t="n">
-        <v>0.003867026148829005</v>
+        <v>0.107382325461471</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9891854174893729</v>
+        <v>0.9891847253244554</v>
       </c>
       <c r="I16" t="n">
         <v>0.9892</v>
@@ -1651,28 +1825,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.08200619527084851</v>
+        <v>0.003001231203367063</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002988722290361052</v>
+        <v>0.08209000801705336</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9909548273045635</v>
+        <v>0.9907952528064791</v>
       </c>
       <c r="E17" t="n">
-        <v>0.99096</v>
+        <v>0.9908</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1044893582766514</v>
+        <v>0.00379166299009448</v>
       </c>
       <c r="G17" t="n">
-        <v>0.003817037012796687</v>
+        <v>0.1062849592461646</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9891854174893729</v>
+        <v>0.9887806746498289</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9892</v>
+        <v>0.9888</v>
       </c>
     </row>
     <row r="18">
@@ -1680,28 +1854,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.08075182526913091</v>
+        <v>0.002971297977848395</v>
       </c>
       <c r="C18" t="n">
-        <v>0.002945575357201107</v>
+        <v>0.08109562090771177</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9909548273045635</v>
+        <v>0.9908752107823442</v>
       </c>
       <c r="E18" t="n">
-        <v>0.99096</v>
+        <v>0.99088</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1035612772696414</v>
+        <v>0.00376259827023093</v>
       </c>
       <c r="G18" t="n">
-        <v>0.003784235936541655</v>
+        <v>0.1053195780104567</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9891854174893729</v>
+        <v>0.9883798113896549</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9892</v>
+        <v>0.9883999999999999</v>
       </c>
     </row>
     <row r="19">
@@ -1709,28 +1883,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.07971464433935399</v>
+        <v>0.002943266356292348</v>
       </c>
       <c r="C19" t="n">
-        <v>0.002909944272597197</v>
+        <v>0.08017721475748948</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9909548273045635</v>
+        <v>0.9910360239119126</v>
       </c>
       <c r="E19" t="n">
-        <v>0.99096</v>
+        <v>0.99104</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1029432709247529</v>
+        <v>0.00373933851517348</v>
       </c>
       <c r="G19" t="n">
-        <v>0.003761832378530892</v>
+        <v>0.1044853342936086</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9891854174893729</v>
+        <v>0.9883798113896549</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9892</v>
+        <v>0.9883999999999999</v>
       </c>
     </row>
     <row r="20">
@@ -1738,28 +1912,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.07883974292009811</v>
+        <v>0.002917035312225389</v>
       </c>
       <c r="C20" t="n">
-        <v>0.002879942616450763</v>
+        <v>0.07932676809540898</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9911148978919133</v>
+        <v>0.9911954310964166</v>
       </c>
       <c r="E20" t="n">
-        <v>0.99112</v>
+        <v>0.9912</v>
       </c>
       <c r="F20" t="n">
-        <v>0.102481949548057</v>
+        <v>0.00372103455461119</v>
       </c>
       <c r="G20" t="n">
-        <v>0.003744335027015812</v>
+        <v>0.1037748701303492</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9891854174893729</v>
+        <v>0.9883798113896549</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9892</v>
+        <v>0.9883999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1773,7 +1947,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1784,14 +1958,14 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>train_mse</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>train_error</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>train_mse</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>train_f1</t>
@@ -1804,12 +1978,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>val_mse</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>val_error</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>val_mse</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1828,28 +2002,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1345831662777291</v>
+        <v>0.004876976246628386</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004823959157459689</v>
+        <v>0.135634947557582</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9860432747999144</v>
+        <v>0.9861972589888912</v>
       </c>
       <c r="E2" t="n">
-        <v>0.98608</v>
+        <v>0.98624</v>
       </c>
       <c r="F2" t="n">
-        <v>0.160794746146988</v>
+        <v>0.005973179257712729</v>
       </c>
       <c r="G2" t="n">
-        <v>0.006043778288586129</v>
+        <v>0.1597382449287639</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9831491144120696</v>
+        <v>0.982346450606842</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9832</v>
+        <v>0.9824000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -1857,25 +2031,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1205631943033729</v>
+        <v>0.00438788037211441</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004329367035858199</v>
+        <v>0.1222208047748736</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9881400533791023</v>
+        <v>0.9882196777907314</v>
       </c>
       <c r="E3" t="n">
-        <v>0.98816</v>
+        <v>0.98824</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1482641168717771</v>
+        <v>0.005581409722681377</v>
       </c>
       <c r="G3" t="n">
-        <v>0.005617245832078742</v>
+        <v>0.1483068542763374</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9843674072892652</v>
+        <v>0.9843633505319258</v>
       </c>
       <c r="I3" t="n">
         <v>0.9844000000000001</v>
@@ -1886,28 +2060,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1122752679201197</v>
+        <v>0.004112362056360097</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004008514890671215</v>
+        <v>0.1153717492637846</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9888657501218419</v>
+        <v>0.9883835081617596</v>
       </c>
       <c r="E4" t="n">
-        <v>0.98888</v>
+        <v>0.9883999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1397579717146661</v>
+        <v>0.005274324832176971</v>
       </c>
       <c r="G4" t="n">
-        <v>0.005295624169565675</v>
+        <v>0.1406549841338074</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9847714352958755</v>
+        <v>0.9843645749996587</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9848</v>
+        <v>0.9844000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -1915,28 +2089,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1058534236645161</v>
+        <v>0.003920629463695294</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003770336956741945</v>
+        <v>0.1101488196337895</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9891868575198772</v>
+        <v>0.9884650641592384</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9892</v>
+        <v>0.98848</v>
       </c>
       <c r="F5" t="n">
-        <v>0.132834968279889</v>
+        <v>0.00503062355026701</v>
       </c>
       <c r="G5" t="n">
-        <v>0.005017735656962667</v>
+        <v>0.1344367352327024</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9855738457465273</v>
+        <v>0.9847714821161823</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9856</v>
+        <v>0.9848</v>
       </c>
     </row>
     <row r="6">
@@ -1944,28 +2118,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1004929018358578</v>
+        <v>0.003793713324935359</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003583546171155735</v>
+        <v>0.1061902323743363</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9895106381039143</v>
+        <v>0.9888681202119183</v>
       </c>
       <c r="E6" t="n">
-        <v>0.98952</v>
+        <v>0.98888</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1268436295518636</v>
+        <v>0.004864715479333515</v>
       </c>
       <c r="G6" t="n">
-        <v>0.004768762149925691</v>
+        <v>0.1300239679517331</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9851726744255955</v>
+        <v>0.9855738893378472</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9852</v>
+        <v>0.9856</v>
       </c>
     </row>
     <row r="7">
@@ -1973,22 +2147,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.09611089681351925</v>
+        <v>0.003703159292988898</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003438610047089218</v>
+        <v>0.1030490810483945</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9899114887389148</v>
+        <v>0.9890293283059879</v>
       </c>
       <c r="E7" t="n">
-        <v>0.98992</v>
+        <v>0.98904</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1218177687763176</v>
+        <v>0.004739142468516104</v>
       </c>
       <c r="G7" t="n">
-        <v>0.004552845881881838</v>
+        <v>0.1267865836666422</v>
       </c>
       <c r="H7" t="n">
         <v>0.9859783186410039</v>
@@ -2002,28 +2176,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.09263861453338712</v>
+        <v>0.003627752749252221</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003327948565662483</v>
+        <v>0.1003559920965297</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9899921667781745</v>
+        <v>0.9893508315554925</v>
       </c>
       <c r="E8" t="n">
-        <v>0.99</v>
+        <v>0.98936</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1178224896187526</v>
+        <v>0.004628170321618712</v>
       </c>
       <c r="G8" t="n">
-        <v>0.004376229445560145</v>
+        <v>0.1241380654809103</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9867787262414597</v>
+        <v>0.9863775226306271</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9868</v>
+        <v>0.9864000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -2031,28 +2205,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.08988048225898067</v>
+        <v>0.003552387631574065</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003242435125356951</v>
+        <v>0.09780030581597803</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9902331820933055</v>
+        <v>0.9895917027385077</v>
       </c>
       <c r="E9" t="n">
-        <v>0.99024</v>
+        <v>0.9896</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1147041334464292</v>
+        <v>0.004514817336682351</v>
       </c>
       <c r="G9" t="n">
-        <v>0.004238147566035019</v>
+        <v>0.1215991679705366</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9875791093091</v>
+        <v>0.9871787266366838</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9876</v>
+        <v>0.9872</v>
       </c>
     </row>
     <row r="10">
@@ -2060,28 +2234,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.08764883971617332</v>
+        <v>0.003478351634466335</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003174829513204607</v>
+        <v>0.09539500119484104</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9903951049485598</v>
+        <v>0.9893518252901656</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9903999999999999</v>
+        <v>0.98936</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1122555441214123</v>
+        <v>0.004403273733414092</v>
       </c>
       <c r="G10" t="n">
-        <v>0.004132539690493303</v>
+        <v>0.1191944963359308</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9879802758446494</v>
+        <v>0.9875779282334902</v>
       </c>
       <c r="I10" t="n">
-        <v>0.988</v>
+        <v>0.9876</v>
       </c>
     </row>
     <row r="11">
@@ -2089,28 +2263,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.08580805905290963</v>
+        <v>0.003410907131620102</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003120008004071699</v>
+        <v>0.09322059662262737</v>
       </c>
       <c r="D11" t="n">
-        <v>0.990395782121806</v>
+        <v>0.9893512010136593</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9903999999999999</v>
+        <v>0.98936</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1103151284054515</v>
+        <v>0.004303871694492495</v>
       </c>
       <c r="G11" t="n">
-        <v>0.004051840934184453</v>
+        <v>0.117069538281986</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9879802758446494</v>
+        <v>0.9883791112995356</v>
       </c>
       <c r="I11" t="n">
-        <v>0.988</v>
+        <v>0.9883999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -2118,28 +2292,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.08426248215552577</v>
+        <v>0.003348080044968244</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003074178662674324</v>
+        <v>0.09120785621794404</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9904757384917827</v>
+        <v>0.9895931780113933</v>
       </c>
       <c r="E12" t="n">
-        <v>0.99048</v>
+        <v>0.9896</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1087604101274826</v>
+        <v>0.00421685739004733</v>
       </c>
       <c r="G12" t="n">
-        <v>0.003989270151292939</v>
+        <v>0.1151669519656467</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9875794125844753</v>
+        <v>0.9887802778350848</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9876</v>
+        <v>0.9888</v>
       </c>
     </row>
     <row r="13">
@@ -2147,28 +2321,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.08294138243059683</v>
+        <v>0.00328919663802207</v>
       </c>
       <c r="C13" t="n">
-        <v>0.003034501996180149</v>
+        <v>0.08933481340551186</v>
       </c>
       <c r="D13" t="n">
-        <v>0.990395782121806</v>
+        <v>0.989672436837673</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9903999999999999</v>
+        <v>0.98968</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1074911732952721</v>
+        <v>0.004139517376335361</v>
       </c>
       <c r="G13" t="n">
-        <v>0.003939680642941428</v>
+        <v>0.1134123668835145</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9883842762318976</v>
+        <v>0.9887802778350848</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9883999999999999</v>
+        <v>0.9888</v>
       </c>
     </row>
     <row r="14">
@@ -2176,25 +2350,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.08179486256575609</v>
+        <v>0.003237648951352669</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002999175333796217</v>
+        <v>0.08769221903543767</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9905557067091897</v>
+        <v>0.9896722456265977</v>
       </c>
       <c r="E14" t="n">
-        <v>0.99056</v>
+        <v>0.98968</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1064331582172977</v>
+        <v>0.004071082804147247</v>
       </c>
       <c r="G14" t="n">
-        <v>0.003899829371315351</v>
+        <v>0.1117940383469896</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9883842762318976</v>
+        <v>0.9883766670506118</v>
       </c>
       <c r="I14" t="n">
         <v>0.9883999999999999</v>
@@ -2205,28 +2379,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.08078608569783298</v>
+        <v>0.003192326594035884</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002967236951829201</v>
+        <v>0.08626604642980316</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9907161374277174</v>
+        <v>0.9897538876537576</v>
       </c>
       <c r="E15" t="n">
-        <v>0.99072</v>
+        <v>0.98976</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1055360345612562</v>
+        <v>0.004011018481074681</v>
       </c>
       <c r="G15" t="n">
-        <v>0.003867774253283706</v>
+        <v>0.1103411831270418</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9883842762318976</v>
+        <v>0.9887811145399824</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9883999999999999</v>
+        <v>0.9888</v>
       </c>
     </row>
     <row r="16">
@@ -2234,28 +2408,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0798850927235313</v>
+        <v>0.003150541982560678</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0029380849154282</v>
+        <v>0.08498452444990603</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9908755255388823</v>
+        <v>0.9897538876537576</v>
       </c>
       <c r="E16" t="n">
-        <v>0.99088</v>
+        <v>0.98976</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1047614637629045</v>
+        <v>0.003958140114999848</v>
       </c>
       <c r="G16" t="n">
-        <v>0.003841641653418307</v>
+        <v>0.1090649654724646</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9883842762318976</v>
+        <v>0.9887811145399824</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9883999999999999</v>
+        <v>0.9888</v>
       </c>
     </row>
     <row r="17">
@@ -2263,28 +2437,144 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.07907053915082272</v>
+        <v>0.003110460395810107</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002911271808648034</v>
+        <v>0.08379111028633877</v>
       </c>
       <c r="D17" t="n">
-        <v>0.99087568156176</v>
+        <v>0.989913968272247</v>
       </c>
       <c r="E17" t="n">
-        <v>0.99088</v>
+        <v>0.98992</v>
       </c>
       <c r="F17" t="n">
-        <v>0.104077918500365</v>
+        <v>0.003910995042305997</v>
       </c>
       <c r="G17" t="n">
-        <v>0.003819439309166748</v>
+        <v>0.1079371326492841</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9883842762318976</v>
+        <v>0.9887842754342919</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9883999999999999</v>
+        <v>0.9888</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.003071293581122191</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.08265689243337697</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9900740808140757</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.99008</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.003868524661816598</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.1069194983794567</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.9887842754342919</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.9888</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.003033085914448065</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.08157587603638218</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9903933842183908</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9903999999999999</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.003830199130627221</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.1059850550509702</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.9887842754342919</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.9888</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.002996243823016963</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.08055242908349657</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9903933842183908</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9903999999999999</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.003795752097665803</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.1051202666547372</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.9887842754342919</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.9888</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.002961096405059891</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.07958946710238243</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9906335055545927</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.99064</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.003764886039127602</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.1043165451311147</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.9887842754342919</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.9888</v>
       </c>
     </row>
   </sheetData>
@@ -2298,7 +2588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2309,14 +2599,14 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>train_mse</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>train_error</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>train_mse</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>train_f1</t>
@@ -2329,12 +2619,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>val_mse</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>val_error</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>val_mse</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2353,28 +2643,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1371085407560713</v>
+        <v>0.005047379047858352</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004901346163603107</v>
+        <v>0.1408906886754915</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9858818751350076</v>
+        <v>0.9857166587826948</v>
       </c>
       <c r="E2" t="n">
-        <v>0.98592</v>
+        <v>0.98576</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1625365994659087</v>
+        <v>0.00622283871847695</v>
       </c>
       <c r="G2" t="n">
-        <v>0.006073251475617626</v>
+        <v>0.1673482451483264</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9843591488366529</v>
+        <v>0.9827547990480774</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9844000000000001</v>
+        <v>0.9828</v>
       </c>
     </row>
     <row r="3">
@@ -2382,28 +2672,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1255911331277684</v>
+        <v>0.004426410838648546</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004501556840601533</v>
+        <v>0.1230630219814876</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9878978219752739</v>
+        <v>0.9875757809673739</v>
       </c>
       <c r="E3" t="n">
-        <v>0.98792</v>
+        <v>0.9876</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1525150930375157</v>
+        <v>0.005717495893423207</v>
       </c>
       <c r="G3" t="n">
-        <v>0.005746689553411506</v>
+        <v>0.1513435252936385</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9847714352958755</v>
+        <v>0.9839674127786364</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9848</v>
+        <v>0.984</v>
       </c>
     </row>
     <row r="4">
@@ -2411,28 +2701,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1180014097975233</v>
+        <v>0.004040997589125551</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004206975666222363</v>
+        <v>0.113101410528381</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9885448035883132</v>
+        <v>0.9889448208785477</v>
       </c>
       <c r="E4" t="n">
-        <v>0.98856</v>
+        <v>0.98896</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1445180929644452</v>
+        <v>0.005366259295090219</v>
       </c>
       <c r="G4" t="n">
-        <v>0.005471214341839969</v>
+        <v>0.141274236845226</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9851726744255955</v>
+        <v>0.9847754884260186</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9852</v>
+        <v>0.9848</v>
       </c>
     </row>
     <row r="5">
@@ -2440,28 +2730,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1119353772026775</v>
+        <v>0.003790375248388345</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003976013686427101</v>
+        <v>0.1066075772336487</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9888646865402171</v>
+        <v>0.9891083567062544</v>
       </c>
       <c r="E5" t="n">
-        <v>0.98888</v>
+        <v>0.98912</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1380644105992851</v>
+        <v>0.005109587071316998</v>
       </c>
       <c r="G5" t="n">
-        <v>0.005231052046516789</v>
+        <v>0.1341181930218757</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9851726744255955</v>
+        <v>0.9855725816253776</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9852</v>
+        <v>0.9856</v>
       </c>
     </row>
     <row r="6">
@@ -2469,28 +2759,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1066930900213884</v>
+        <v>0.003627569118075984</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003788790647438925</v>
+        <v>0.1020907160735795</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9892685179040653</v>
+        <v>0.9892709481791343</v>
       </c>
       <c r="E6" t="n">
         <v>0.98928</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1323572514532868</v>
+        <v>0.004908086063701472</v>
       </c>
       <c r="G6" t="n">
-        <v>0.005005964293133922</v>
+        <v>0.1288966077477664</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9851726744255955</v>
+        <v>0.9855726720375499</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9852</v>
+        <v>0.9856</v>
       </c>
     </row>
     <row r="7">
@@ -2498,28 +2788,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.101657702413042</v>
+        <v>0.003512751784862978</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003616873322412874</v>
+        <v>0.09862380335752512</v>
       </c>
       <c r="D7" t="n">
-        <v>0.98934975892916</v>
+        <v>0.9895135010864969</v>
       </c>
       <c r="E7" t="n">
-        <v>0.98936</v>
+        <v>0.98952</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1267358635440771</v>
+        <v>0.004745933566673307</v>
       </c>
       <c r="G7" t="n">
-        <v>0.004778462697879323</v>
+        <v>0.1250221623538414</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9863783162529584</v>
+        <v>0.9855726720375499</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9864000000000001</v>
+        <v>0.9856</v>
       </c>
     </row>
     <row r="8">
@@ -2527,22 +2817,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.09694340524178319</v>
+        <v>0.003422093681223077</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0034596139338883</v>
+        <v>0.0957427419712228</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9897506041372055</v>
+        <v>0.989753636312912</v>
       </c>
       <c r="E8" t="n">
         <v>0.98976</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1213493877791335</v>
+        <v>0.004612549833473042</v>
       </c>
       <c r="G8" t="n">
-        <v>0.004555525547811228</v>
+        <v>0.1220780514497879</v>
       </c>
       <c r="H8" t="n">
         <v>0.9863783162529584</v>
@@ -2556,28 +2846,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.09289559302306605</v>
+        <v>0.00334321994035965</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003327260808584862</v>
+        <v>0.09322341097550851</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9901516620057534</v>
+        <v>0.9901521586013712</v>
       </c>
       <c r="E9" t="n">
         <v>0.99016</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1166708272300948</v>
+        <v>0.00449921642723668</v>
       </c>
       <c r="G9" t="n">
-        <v>0.004356079519630983</v>
+        <v>0.1197385445579092</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9867795198637909</v>
+        <v>0.9863783162529584</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9868</v>
+        <v>0.9864000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -2585,28 +2875,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.08961374408976441</v>
+        <v>0.003272024707055115</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003222353791139485</v>
+        <v>0.09098569028314103</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9903914274846153</v>
+        <v>0.9901531642296219</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9903999999999999</v>
+        <v>0.99016</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1128825292597553</v>
+        <v>0.004399391120868268</v>
       </c>
       <c r="G10" t="n">
-        <v>0.004191203704594595</v>
+        <v>0.1177604622314196</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9879791120971411</v>
+        <v>0.9867795198637909</v>
       </c>
       <c r="I10" t="n">
-        <v>0.988</v>
+        <v>0.9868</v>
       </c>
     </row>
     <row r="11">
@@ -2614,28 +2904,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.08699451162603714</v>
+        <v>0.00320902187423064</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003140335173135195</v>
+        <v>0.08902991893143201</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9905526687064683</v>
+        <v>0.9902353403006977</v>
       </c>
       <c r="E11" t="n">
-        <v>0.99056</v>
+        <v>0.99024</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1098854649628609</v>
+        <v>0.004310882422657997</v>
       </c>
       <c r="G11" t="n">
-        <v>0.004060740561324468</v>
+        <v>0.1160362955330612</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9887802778350848</v>
+        <v>0.9875806985632551</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9888</v>
+        <v>0.9876</v>
       </c>
     </row>
     <row r="12">
@@ -2643,28 +2933,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.08489700175468942</v>
+        <v>0.003153397649950807</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003075503296366187</v>
+        <v>0.08731250690657706</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9906328228282363</v>
+        <v>0.9903161894603534</v>
       </c>
       <c r="E12" t="n">
-        <v>0.99064</v>
+        <v>0.99032</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1075383700077897</v>
+        <v>0.00423166075660511</v>
       </c>
       <c r="G12" t="n">
-        <v>0.003959923172498354</v>
+        <v>0.1144829305893586</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9891814294614328</v>
+        <v>0.9875806985632551</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9892</v>
+        <v>0.9876</v>
       </c>
     </row>
     <row r="13">
@@ -2672,28 +2962,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.08319829431450945</v>
+        <v>0.003103737886298627</v>
       </c>
       <c r="C13" t="n">
-        <v>0.003023228645006183</v>
+        <v>0.08577502365892355</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9905528686174605</v>
+        <v>0.9903962813291742</v>
       </c>
       <c r="E13" t="n">
-        <v>0.99056</v>
+        <v>0.9903999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1057170145484233</v>
+        <v>0.004158992881098333</v>
       </c>
       <c r="G13" t="n">
-        <v>0.003883202364578969</v>
+        <v>0.1130256733174486</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9891814294614328</v>
+        <v>0.9875806985632551</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9892</v>
+        <v>0.9876</v>
       </c>
     </row>
     <row r="14">
@@ -2701,28 +2991,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0817931967244267</v>
+        <v>0.003059078651898163</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002979754014951528</v>
+        <v>0.08437983230616808</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9906330202765773</v>
+        <v>0.990396141581852</v>
       </c>
       <c r="E14" t="n">
-        <v>0.99064</v>
+        <v>0.9903999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1042957844222966</v>
+        <v>0.004090961766694503</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00382472264833037</v>
+        <v>0.1116139663811066</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9895858858841435</v>
+        <v>0.9879818650988044</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9896</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="15">
@@ -2730,28 +3020,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.08060182017653282</v>
+        <v>0.003018764442050504</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002942339038171678</v>
+        <v>0.08311021222570197</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9907924873098445</v>
+        <v>0.9906369702449217</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9908</v>
+        <v>0.99064</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1031673558401035</v>
+        <v>0.004027257205020286</v>
       </c>
       <c r="G15" t="n">
-        <v>0.003779510333262533</v>
+        <v>0.1102341993980972</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9891854174893729</v>
+        <v>0.9875810018386304</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9892</v>
+        <v>0.9876</v>
       </c>
     </row>
     <row r="16">
@@ -2759,28 +3049,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.07957040192482963</v>
+        <v>0.002982225691360545</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002909261588176782</v>
+        <v>0.08195686558260656</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9910312850299935</v>
+        <v>0.9907168380941485</v>
       </c>
       <c r="E16" t="n">
-        <v>0.99104</v>
+        <v>0.99072</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1022538293437949</v>
+        <v>0.003968632470992588</v>
       </c>
       <c r="G16" t="n">
-        <v>0.003744020737680621</v>
+        <v>0.1089037692614336</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9891854174893729</v>
+        <v>0.9875810018386304</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9892</v>
+        <v>0.9876</v>
       </c>
     </row>
     <row r="17">
@@ -2788,28 +3078,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.07866425328509266</v>
+        <v>0.002948912568737525</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002879542947436443</v>
+        <v>0.08090805823897827</v>
       </c>
       <c r="D17" t="n">
-        <v>0.991192147397882</v>
+        <v>0.9907968099014124</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9912</v>
+        <v>0.9908</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1015018856581004</v>
+        <v>0.003915974572195583</v>
       </c>
       <c r="G17" t="n">
-        <v>0.003715863756805729</v>
+        <v>0.1076503469471279</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9895865474802596</v>
+        <v>0.9875810018386304</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9896</v>
+        <v>0.9876</v>
       </c>
     </row>
     <row r="18">
@@ -2817,28 +3107,144 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.07786021601936936</v>
+        <v>0.002918263125185577</v>
       </c>
       <c r="C18" t="n">
-        <v>0.002852647844520312</v>
+        <v>0.07994683632953524</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9912722908521997</v>
+        <v>0.9907968099014124</v>
       </c>
       <c r="E18" t="n">
-        <v>0.99128</v>
+        <v>0.9908</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1008745293753922</v>
+        <v>0.003869729988104336</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00369339119393155</v>
+        <v>0.1064935272249764</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9895865474802596</v>
+        <v>0.9879802109900547</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9896</v>
+        <v>0.988</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.002889732653763202</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.07905368893160772</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9908760902134885</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.99088</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.003829862477942046</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.1054401864924321</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.9887805472623752</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.9888</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.002862894693129382</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.07821162771590076</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9911160073728155</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.99112</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.003796078933197381</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.1044899306837135</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.9887805472623752</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.9888</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.002837516096456888</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.07740996044364414</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9910360353519053</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.99104</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.003767964414653226</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.1036404777556457</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.9887805472623752</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.9888</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.002813557008207356</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.07664559251471634</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9913562440725803</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.99136</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.003744972508180958</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.1028897659849591</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.9887805472623752</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.9888</v>
       </c>
     </row>
   </sheetData>

--- a/Networks/Parte3/errors.xlsx
+++ b/Networks/Parte3/errors.xlsx
@@ -485,28 +485,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00719066897270123</v>
+        <v>0.008984570859816632</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2377661911560484</v>
+        <v>0.2690667197050469</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9792773352631228</v>
+        <v>0.9741886715057028</v>
       </c>
       <c r="E2" t="n">
-        <v>0.97936</v>
+        <v>0.97432</v>
       </c>
       <c r="F2" t="n">
-        <v>0.008092599011878284</v>
+        <v>0.009764595899505559</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2584310308223076</v>
+        <v>0.2857862070314666</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9755509086559246</v>
+        <v>0.9710934489829979</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9756</v>
+        <v>0.9712</v>
       </c>
     </row>
     <row r="3">
@@ -514,28 +514,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.006661745117116677</v>
+        <v>0.008114780022442781</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2064451522975317</v>
+        <v>0.2378980585495055</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9800524717721903</v>
+        <v>0.9750992481918731</v>
       </c>
       <c r="E3" t="n">
-        <v>0.98008</v>
+        <v>0.9752</v>
       </c>
       <c r="F3" t="n">
-        <v>0.007631302115790006</v>
+        <v>0.00909684491437888</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2297978548173075</v>
+        <v>0.257883952776887</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9783703083179733</v>
+        <v>0.9731273639591134</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9784</v>
+        <v>0.9732</v>
       </c>
     </row>
     <row r="4">
@@ -543,28 +543,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.006727459646063851</v>
+        <v>0.007795638465866638</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2015333221825024</v>
+        <v>0.2256852687613283</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9799800937376896</v>
+        <v>0.9773498930600206</v>
       </c>
       <c r="E4" t="n">
-        <v>0.98</v>
+        <v>0.97744</v>
       </c>
       <c r="F4" t="n">
-        <v>0.007339605706612966</v>
+        <v>0.008945917008684629</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2192452284312782</v>
+        <v>0.2499028557345215</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9775574130899332</v>
+        <v>0.9727439082674241</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9776</v>
+        <v>0.9728</v>
       </c>
     </row>
     <row r="5">
@@ -572,28 +572,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.00677028144389445</v>
+        <v>0.007699716146653851</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1994279499624655</v>
+        <v>0.2208805997109107</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9791734595743292</v>
+        <v>0.977284858895857</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9792</v>
+        <v>0.97736</v>
       </c>
       <c r="F5" t="n">
-        <v>0.007174630614212637</v>
+        <v>0.008896079246815819</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2149695365527475</v>
+        <v>0.2473920319974359</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9783609987820914</v>
+        <v>0.9743592402879072</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9784</v>
+        <v>0.9744</v>
       </c>
     </row>
     <row r="6">
@@ -601,28 +601,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.006656303376290434</v>
+        <v>0.007733652101165228</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1954736790283916</v>
+        <v>0.2205847207248315</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9790112422601983</v>
+        <v>0.9772014576322011</v>
       </c>
       <c r="E6" t="n">
-        <v>0.97904</v>
+        <v>0.97728</v>
       </c>
       <c r="F6" t="n">
-        <v>0.006799010491074104</v>
+        <v>0.008864157552722856</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2092921922807326</v>
+        <v>0.2465223240391547</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9799628345351655</v>
+        <v>0.9739446431073334</v>
       </c>
       <c r="I6" t="n">
-        <v>0.98</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="7">
@@ -630,28 +630,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.006253555702321091</v>
+        <v>0.007450307675510207</v>
       </c>
       <c r="C7" t="n">
-        <v>0.185870238247509</v>
+        <v>0.2136967573986476</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9803841823359026</v>
+        <v>0.9775994520582358</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9804</v>
+        <v>0.97768</v>
       </c>
       <c r="F7" t="n">
-        <v>0.006889426963649763</v>
+        <v>0.008748194355883651</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2080006010056012</v>
+        <v>0.2432706707687193</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9799833104683608</v>
+        <v>0.9739446431073334</v>
       </c>
       <c r="I7" t="n">
-        <v>0.98</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="8">
@@ -659,28 +659,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.006179766121521238</v>
+        <v>0.007243921573685397</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1839690222892059</v>
+        <v>0.209020935869541</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9808668293971442</v>
+        <v>0.9775249698564368</v>
       </c>
       <c r="E8" t="n">
-        <v>0.98088</v>
+        <v>0.9776</v>
       </c>
       <c r="F8" t="n">
-        <v>0.006994145380501735</v>
+        <v>0.008885589096814655</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2091708980144554</v>
+        <v>0.2472955583670481</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9783858745519416</v>
+        <v>0.9727520397345331</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9784</v>
+        <v>0.9728</v>
       </c>
     </row>
     <row r="9">
@@ -688,28 +688,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.006120652263046206</v>
+        <v>0.007212244674937852</v>
       </c>
       <c r="C9" t="n">
-        <v>0.182574116300582</v>
+        <v>0.2081642845363313</v>
       </c>
       <c r="D9" t="n">
-        <v>0.981191708597717</v>
+        <v>0.9767247173352205</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9812</v>
+        <v>0.9768</v>
       </c>
       <c r="F9" t="n">
-        <v>0.007052139944764378</v>
+        <v>0.008910237058209787</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2093127987173772</v>
+        <v>0.2486925962801752</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9787862701407879</v>
+        <v>0.9731546430583734</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9788</v>
+        <v>0.9732</v>
       </c>
     </row>
     <row r="10">
@@ -717,28 +717,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.006051887222218126</v>
+        <v>0.007196256443896445</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1804838770226554</v>
+        <v>0.2073358795597562</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9817519373791544</v>
+        <v>0.9772104416752312</v>
       </c>
       <c r="E10" t="n">
-        <v>0.98176</v>
+        <v>0.97728</v>
       </c>
       <c r="F10" t="n">
-        <v>0.007003126159454832</v>
+        <v>0.008874222822996686</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2070805500080204</v>
+        <v>0.2476914368845076</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9787862701407879</v>
+        <v>0.9731560126444123</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9788</v>
+        <v>0.9732</v>
       </c>
     </row>
   </sheetData>
@@ -752,7 +752,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -807,28 +807,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.005178353762994766</v>
+        <v>0.005245749250625405</v>
       </c>
       <c r="C2" t="n">
-        <v>0.152725617291144</v>
+        <v>0.1550133182721247</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9849124286518195</v>
+        <v>0.9847530244989722</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9849599999999999</v>
+        <v>0.9848</v>
       </c>
       <c r="F2" t="n">
-        <v>0.006352624196453481</v>
+        <v>0.00636646628488603</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1777480949850393</v>
+        <v>0.1785251230733404</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9819455308081011</v>
+        <v>0.9803402994703287</v>
       </c>
       <c r="I2" t="n">
-        <v>0.982</v>
+        <v>0.9804</v>
       </c>
     </row>
     <row r="3">
@@ -836,28 +836,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.004395082369269846</v>
+        <v>0.004677868152384754</v>
       </c>
       <c r="C3" t="n">
-        <v>0.128555013101747</v>
+        <v>0.1348702259799845</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9866204425396164</v>
+        <v>0.9862100468373571</v>
       </c>
       <c r="E3" t="n">
-        <v>0.98664</v>
+        <v>0.98624</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005558686656377041</v>
+        <v>0.005902572849904546</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1550502948898264</v>
+        <v>0.1619464501115427</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9843661479965551</v>
+        <v>0.9827582057803699</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9844000000000001</v>
+        <v>0.9828</v>
       </c>
     </row>
     <row r="4">
@@ -865,28 +865,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.004050183449464674</v>
+        <v>0.004350950655668475</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1189142563931473</v>
+        <v>0.1250827783855782</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9881487023263381</v>
+        <v>0.9868565422926983</v>
       </c>
       <c r="E4" t="n">
-        <v>0.98816</v>
+        <v>0.98688</v>
       </c>
       <c r="F4" t="n">
-        <v>0.005279412826778005</v>
+        <v>0.005646290651256443</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1459754861905066</v>
+        <v>0.1540785132829124</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9843730002908233</v>
+        <v>0.9835685015207861</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9844000000000001</v>
+        <v>0.9836</v>
       </c>
     </row>
     <row r="5">
@@ -894,28 +894,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.003864896761551348</v>
+        <v>0.004073817800827068</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1131296498336125</v>
+        <v>0.1180382097899104</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9888723730822989</v>
+        <v>0.9879860513329115</v>
       </c>
       <c r="E5" t="n">
-        <v>0.98888</v>
+        <v>0.988</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00514431157848786</v>
+        <v>0.005424193880084979</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1406095676744991</v>
+        <v>0.1482288613429124</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9843730002908233</v>
+        <v>0.9839697552540759</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9844000000000001</v>
+        <v>0.984</v>
       </c>
     </row>
     <row r="6">
@@ -923,28 +923,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.003758444120967781</v>
+        <v>0.003913789015885493</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1093956291458595</v>
+        <v>0.1138879807000628</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9890337642522248</v>
+        <v>0.9885493590782179</v>
       </c>
       <c r="E6" t="n">
-        <v>0.98904</v>
+        <v>0.98856</v>
       </c>
       <c r="F6" t="n">
-        <v>0.005036671767667061</v>
+        <v>0.005259719556719209</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1365660215434034</v>
+        <v>0.1442997026922972</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9855805534896633</v>
+        <v>0.98396492513607</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9856</v>
+        <v>0.984</v>
       </c>
     </row>
     <row r="7">
@@ -952,28 +952,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.003695740952374339</v>
+        <v>0.003833409220588395</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1068193050389008</v>
+        <v>0.1113538059929542</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9898323532283064</v>
+        <v>0.9888721527919188</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9898400000000001</v>
+        <v>0.98888</v>
       </c>
       <c r="F7" t="n">
-        <v>0.004923284995057814</v>
+        <v>0.005144385971509943</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1330384319156767</v>
+        <v>0.1416952262509109</v>
       </c>
       <c r="H7" t="n">
-        <v>0.985979777779199</v>
+        <v>0.9855686212588172</v>
       </c>
       <c r="I7" t="n">
-        <v>0.986</v>
+        <v>0.9856</v>
       </c>
     </row>
     <row r="8">
@@ -981,28 +981,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.003668792425980269</v>
+        <v>0.003797678479255254</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1050723618087199</v>
+        <v>0.109722666721703</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9894320706066908</v>
+        <v>0.9887917687036323</v>
       </c>
       <c r="E8" t="n">
-        <v>0.98944</v>
+        <v>0.9888</v>
       </c>
       <c r="F8" t="n">
-        <v>0.004811438422754786</v>
+        <v>0.005059133831241246</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1298321771877158</v>
+        <v>0.1398185198479521</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9863783162529584</v>
+        <v>0.9855681954021946</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9864000000000001</v>
+        <v>0.9856</v>
       </c>
     </row>
     <row r="9">
@@ -1010,28 +1010,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.003656685722325261</v>
+        <v>0.003773816049612382</v>
       </c>
       <c r="C9" t="n">
-        <v>0.103628588444234</v>
+        <v>0.1082815125326933</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9892729371689298</v>
+        <v>0.9887930977962054</v>
       </c>
       <c r="E9" t="n">
-        <v>0.98928</v>
+        <v>0.9888</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004712456822332077</v>
+        <v>0.004988155191876105</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1266288936033546</v>
+        <v>0.1380902887984632</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9867790973017389</v>
+        <v>0.9851693743702056</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9868</v>
+        <v>0.9852</v>
       </c>
     </row>
     <row r="10">
@@ -1039,28 +1039,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.003626317719297044</v>
+        <v>0.00375881377100159</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1018293494971746</v>
+        <v>0.1070846735137209</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9894338274316471</v>
+        <v>0.9887129586866751</v>
       </c>
       <c r="E10" t="n">
-        <v>0.98944</v>
+        <v>0.98872</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004607558144570274</v>
+        <v>0.004939489052902417</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1234664263677404</v>
+        <v>0.1366951636301508</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9867790973017389</v>
+        <v>0.9851693743702056</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9868</v>
+        <v>0.9852</v>
       </c>
     </row>
     <row r="11">
@@ -1068,28 +1068,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.003582374665085578</v>
+        <v>0.003753087861654707</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09988457359829141</v>
+        <v>0.1061496164592227</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9895937792297184</v>
+        <v>0.9887947375595706</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9896</v>
+        <v>0.9888</v>
       </c>
       <c r="F11" t="n">
-        <v>0.004503374687221966</v>
+        <v>0.004899940675503258</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1205434089048587</v>
+        <v>0.1354586904005466</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9867778449983019</v>
+        <v>0.9859745383254357</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9868</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="12">
@@ -1097,28 +1097,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.003533922571687448</v>
+        <v>0.003749166420607158</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09804993495826127</v>
+        <v>0.105312105175814</v>
       </c>
       <c r="D12" t="n">
-        <v>0.989754969369595</v>
+        <v>0.9884746448588088</v>
       </c>
       <c r="E12" t="n">
-        <v>0.98976</v>
+        <v>0.98848</v>
       </c>
       <c r="F12" t="n">
-        <v>0.004408217076692772</v>
+        <v>0.004858231142883284</v>
       </c>
       <c r="G12" t="n">
-        <v>0.117989801026049</v>
+        <v>0.1341529110219474</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9867778449983019</v>
+        <v>0.9855728495443078</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9868</v>
+        <v>0.9856</v>
       </c>
     </row>
     <row r="13">
@@ -1126,28 +1126,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.003484618314872056</v>
+        <v>0.003740837609707237</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09638377620479434</v>
+        <v>0.1044517421155099</v>
       </c>
       <c r="D13" t="n">
-        <v>0.989995560000877</v>
+        <v>0.9886330583125058</v>
       </c>
       <c r="E13" t="n">
-        <v>0.99</v>
+        <v>0.98864</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004325366158672176</v>
+        <v>0.004808186364463981</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1158313779546688</v>
+        <v>0.1326620545855852</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9875830961415563</v>
+        <v>0.9855728495443078</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9876</v>
+        <v>0.9856</v>
       </c>
     </row>
     <row r="14">
@@ -1155,28 +1155,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.003438781526448431</v>
+        <v>0.003725180315520057</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09490921939126407</v>
+        <v>0.1035179788800418</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9901554650300159</v>
+        <v>0.9886329794129576</v>
       </c>
       <c r="E14" t="n">
-        <v>0.99016</v>
+        <v>0.98864</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00425993199164693</v>
+        <v>0.004748586165235122</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1141042045805563</v>
+        <v>0.130982885835638</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9875830961415563</v>
+        <v>0.9855728495443078</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9876</v>
+        <v>0.9856</v>
       </c>
     </row>
     <row r="15">
@@ -1184,28 +1184,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.00339989594125419</v>
+        <v>0.003702273746436884</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09363585497504029</v>
+        <v>0.1025087042566109</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9902347748817337</v>
+        <v>0.9887936109705802</v>
       </c>
       <c r="E15" t="n">
-        <v>0.99024</v>
+        <v>0.9888</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004210792425360102</v>
+        <v>0.004680723469313879</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1127386040825152</v>
+        <v>0.1291626973858714</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9875830961415563</v>
+        <v>0.9859735590935316</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9876</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="16">
@@ -1213,28 +1213,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.003368523938273796</v>
+        <v>0.003673701677603337</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09256217709902163</v>
+        <v>0.10143872087124</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9903149047969382</v>
+        <v>0.9888742977656513</v>
       </c>
       <c r="E16" t="n">
-        <v>0.99032</v>
+        <v>0.98888</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004173540257227645</v>
+        <v>0.0046068718650661</v>
       </c>
       <c r="G16" t="n">
-        <v>0.111651389592846</v>
+        <v>0.1272583473050133</v>
       </c>
       <c r="H16" t="n">
-        <v>0.987581050153722</v>
+        <v>0.9863727448186369</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9876</v>
+        <v>0.9864000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -1242,28 +1242,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.003343074830612575</v>
+        <v>0.003641569526463534</v>
       </c>
       <c r="C17" t="n">
-        <v>0.09165984961957012</v>
+        <v>0.1003279930712815</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9903950022270459</v>
+        <v>0.9890351120865208</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9903999999999999</v>
+        <v>0.98904</v>
       </c>
       <c r="F17" t="n">
-        <v>0.004144384375104213</v>
+        <v>0.004530763758835171</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1107800613663923</v>
+        <v>0.1253401248875775</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9879802553337893</v>
+        <v>0.9871784688329133</v>
       </c>
       <c r="I17" t="n">
-        <v>0.988</v>
+        <v>0.9872</v>
       </c>
     </row>
     <row r="18">
@@ -1271,28 +1271,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.003321722592879417</v>
+        <v>0.003607821834755688</v>
       </c>
       <c r="C18" t="n">
-        <v>0.09088918461046527</v>
+        <v>0.09918940236412097</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9903150483944954</v>
+        <v>0.9890340161460252</v>
       </c>
       <c r="E18" t="n">
-        <v>0.99032</v>
+        <v>0.98904</v>
       </c>
       <c r="F18" t="n">
-        <v>0.004120801924832959</v>
+        <v>0.004454891462603227</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1100764720357566</v>
+        <v>0.123455272746603</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9875766545493263</v>
+        <v>0.9867792779503894</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9876</v>
+        <v>0.9868</v>
       </c>
     </row>
     <row r="19">
@@ -1300,28 +1300,318 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.00330304407794193</v>
+        <v>0.003573083343043274</v>
       </c>
       <c r="C19" t="n">
-        <v>0.09021355437501362</v>
+        <v>0.09801741504172182</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9902343415975512</v>
+        <v>0.9891141539876791</v>
       </c>
       <c r="E19" t="n">
-        <v>0.99024</v>
+        <v>0.98912</v>
       </c>
       <c r="F19" t="n">
-        <v>0.004101182494411495</v>
+        <v>0.004377457912492341</v>
       </c>
       <c r="G19" t="n">
-        <v>0.109502961018242</v>
+        <v>0.1215936022141408</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9875766545493263</v>
+        <v>0.9875787995282185</v>
       </c>
       <c r="I19" t="n">
         <v>0.9876</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.003537405570084634</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.09682638096272028</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9891123337114929</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.98912</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.004298145792158579</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.1197565825778751</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.9875787995282185</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.9876</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.003496487600863024</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.09552584624844351</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9891123337114929</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.98912</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.004219169831277936</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.1179262432189572</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.9887782657943982</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.9888</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.003443084154367469</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0939764762587678</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9895139793380322</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.98952</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.004140387531036574</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.1160565473950785</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.9887782657943982</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.9888</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.003381512849502303</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.09227740763378653</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.989754229426534</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.98976</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.004069742532185194</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.1142608505750186</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.9887782657943982</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.9888</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.003319360621094792</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.09054227761184541</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.990154104743494</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.99016</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.004012076815594189</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.1126091135215057</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.9891795097095006</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.9892</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.003261367119014418</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.08889415373327871</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9905542926690536</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.99056</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.003969333513491474</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.1111571630760406</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.9891795097095006</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.9892</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.003210964950823846</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.08745093508987493</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9906349066810245</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.99064</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.00394096038453913</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.1099693194504556</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.9895831181011472</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.9896</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.003168900666536201</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.08624277482622027</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.9905547952327121</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.99056</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.003923052940146261</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.109054911896373</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.9895831181011472</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.9896</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.003133620946446016</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.08522637097250697</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.9905555644371076</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.99056</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.003910539646132487</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.1083513125431025</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.9895831181011472</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.9896</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.003102906806188115</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.08434257752629748</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.9905555644371076</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.99056</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.003899942186875306</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.1077813840176252</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.9895831181011472</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.9896</v>
       </c>
     </row>
   </sheetData>
@@ -1335,7 +1625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1390,28 +1680,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.004821998423432355</v>
+        <v>0.004847646924480872</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1381355649428613</v>
+        <v>0.1387651852067802</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9862868726830214</v>
+        <v>0.9862875720240234</v>
       </c>
       <c r="E2" t="n">
         <v>0.98632</v>
       </c>
       <c r="F2" t="n">
-        <v>0.005938164748319152</v>
+        <v>0.006041461831096909</v>
       </c>
       <c r="G2" t="n">
-        <v>0.163229511406305</v>
+        <v>0.1640568079698103</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9823589785617958</v>
+        <v>0.9827624545651357</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9824000000000001</v>
+        <v>0.9828</v>
       </c>
     </row>
     <row r="3">
@@ -1419,28 +1709,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00426217873494684</v>
+        <v>0.004395046897034236</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1206850254068869</v>
+        <v>0.1245167582425175</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9877400620717912</v>
+        <v>0.9878242084324184</v>
       </c>
       <c r="E3" t="n">
-        <v>0.98776</v>
+        <v>0.9878400000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005466436645875708</v>
+        <v>0.0056241435223405</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1478195524078426</v>
+        <v>0.1521141867544806</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9851658132661479</v>
+        <v>0.9839710647998799</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9852</v>
+        <v>0.984</v>
       </c>
     </row>
     <row r="4">
@@ -1448,28 +1738,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.003965765374034865</v>
+        <v>0.00409319111045504</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1125470054204144</v>
+        <v>0.1162103741803665</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9887050924058448</v>
+        <v>0.9885472114028844</v>
       </c>
       <c r="E4" t="n">
-        <v>0.98872</v>
+        <v>0.98856</v>
       </c>
       <c r="F4" t="n">
-        <v>0.005161810712705415</v>
+        <v>0.005328345445054892</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1393779047215305</v>
+        <v>0.1440239110966595</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9847714352958755</v>
+        <v>0.9843674072892654</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9848</v>
+        <v>0.9844000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -1477,25 +1767,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.003771135829366636</v>
+        <v>0.003884108920580613</v>
       </c>
       <c r="C5" t="n">
-        <v>0.107005797899065</v>
+        <v>0.1102416736394693</v>
       </c>
       <c r="D5" t="n">
-        <v>0.988706744674358</v>
+        <v>0.9891100999559976</v>
       </c>
       <c r="E5" t="n">
-        <v>0.98872</v>
+        <v>0.98912</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004906724865946927</v>
+        <v>0.005094926326456424</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1328295923352473</v>
+        <v>0.1374777469188407</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9855738457465273</v>
+        <v>0.9855690253152252</v>
       </c>
       <c r="I5" t="n">
         <v>0.9856</v>
@@ -1506,28 +1796,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.003627992473278669</v>
+        <v>0.003738667203117958</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1026903510504009</v>
+        <v>0.1058114969751829</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9893490356016578</v>
+        <v>0.9893520635463947</v>
       </c>
       <c r="E6" t="n">
         <v>0.98936</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004703746493290132</v>
+        <v>0.00490171435241777</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1276582045931378</v>
+        <v>0.1320502058375688</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9851726744255955</v>
+        <v>0.9855686447324288</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9852</v>
+        <v>0.9856</v>
       </c>
     </row>
     <row r="7">
@@ -1535,28 +1825,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.003510844609716216</v>
+        <v>0.003625693120535586</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09911255423288652</v>
+        <v>0.1021669553714873</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9896712658610425</v>
+        <v>0.9896734604500027</v>
       </c>
       <c r="E7" t="n">
         <v>0.98968</v>
       </c>
       <c r="F7" t="n">
-        <v>0.004539498156008923</v>
+        <v>0.004723533009277267</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1235785163190575</v>
+        <v>0.1271042237639289</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9863795222518363</v>
+        <v>0.9859730764284022</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9864000000000001</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="8">
@@ -1564,25 +1854,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.003415232957636698</v>
+        <v>0.003525622684338948</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09616697513575259</v>
+        <v>0.0988379910143128</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9899925161337001</v>
+        <v>0.9895934676095756</v>
       </c>
       <c r="E8" t="n">
-        <v>0.99</v>
+        <v>0.9896</v>
       </c>
       <c r="F8" t="n">
-        <v>0.004404127037364686</v>
+        <v>0.004546553655703432</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1204123502740767</v>
+        <v>0.1223355246308621</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9863795222518363</v>
+        <v>0.9863746933482801</v>
       </c>
       <c r="I8" t="n">
         <v>0.9864000000000001</v>
@@ -1593,28 +1883,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.003339127043518929</v>
+        <v>0.003430395844663721</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09374690246520315</v>
+        <v>0.09567727263806627</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9902340675307731</v>
+        <v>0.9898329712299343</v>
       </c>
       <c r="E9" t="n">
-        <v>0.99024</v>
+        <v>0.9898400000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00429237393522191</v>
+        <v>0.004377228493806852</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1179567443565125</v>
+        <v>0.1179198275801009</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9867787262414597</v>
+        <v>0.9863746933482801</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9868</v>
+        <v>0.9864000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -1622,28 +1912,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.003277778088446172</v>
+        <v>0.003336393410553046</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09171183934002809</v>
+        <v>0.09265406067370416</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9903133667813018</v>
+        <v>0.9899942076411488</v>
       </c>
       <c r="E10" t="n">
-        <v>0.99032</v>
+        <v>0.99</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004198121869257841</v>
+        <v>0.004221829693702513</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1159808276582937</v>
+        <v>0.1140100405657151</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9871787266366838</v>
+        <v>0.9867734961422924</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9872</v>
+        <v>0.9868</v>
       </c>
     </row>
     <row r="11">
@@ -1651,28 +1941,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.003226330497803603</v>
+        <v>0.00324020063472395</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08994455005791513</v>
+        <v>0.08967207708756197</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9903140764020328</v>
+        <v>0.9902337563855816</v>
       </c>
       <c r="E11" t="n">
-        <v>0.99032</v>
+        <v>0.99024</v>
       </c>
       <c r="F11" t="n">
-        <v>0.004116328293989016</v>
+        <v>0.004084499280392942</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1142935819666178</v>
+        <v>0.1105431771395392</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9879779274358848</v>
+        <v>0.9875766694410431</v>
       </c>
       <c r="I11" t="n">
-        <v>0.988</v>
+        <v>0.9876</v>
       </c>
     </row>
     <row r="12">
@@ -1680,28 +1970,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.003181295249271574</v>
+        <v>0.003145666773546771</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08836393382116194</v>
+        <v>0.08682571554352493</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9905546989163119</v>
+        <v>0.9906330304782662</v>
       </c>
       <c r="E12" t="n">
-        <v>0.99056</v>
+        <v>0.99064</v>
       </c>
       <c r="F12" t="n">
-        <v>0.004043728339461071</v>
+        <v>0.003971859290620034</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1127623467220337</v>
+        <v>0.1075526949266695</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9879779274358848</v>
+        <v>0.9883802786326903</v>
       </c>
       <c r="I12" t="n">
-        <v>0.988</v>
+        <v>0.9883999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -1709,28 +1999,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.00314045785030117</v>
+        <v>0.003066062192996238</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08691832805822609</v>
+        <v>0.08443384407420035</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9906355212749727</v>
+        <v>0.9908742281660217</v>
       </c>
       <c r="E13" t="n">
-        <v>0.99064</v>
+        <v>0.99088</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003978685259240764</v>
+        <v>0.00388976618294006</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1113123761169789</v>
+        <v>0.1052481097708717</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9883791112995356</v>
+        <v>0.9879794153725164</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9883999999999999</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="14">
@@ -1738,25 +2028,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.003102528934359311</v>
+        <v>0.003005419476226583</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08557803553600596</v>
+        <v>0.08257990408991532</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9906359239569569</v>
+        <v>0.9908741147651421</v>
       </c>
       <c r="E14" t="n">
-        <v>0.99064</v>
+        <v>0.99088</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003920810732285342</v>
+        <v>0.003835057435854036</v>
       </c>
       <c r="G14" t="n">
-        <v>0.109920940299213</v>
+        <v>0.1036470541010958</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9887802778350848</v>
+        <v>0.988780547262375</v>
       </c>
       <c r="I14" t="n">
         <v>0.9888</v>
@@ -1767,25 +2057,25 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.003066831799515425</v>
+        <v>0.002958287718098143</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08432899938297876</v>
+        <v>0.08111847367945511</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9907158665928579</v>
+        <v>0.9911146471545864</v>
       </c>
       <c r="E15" t="n">
-        <v>0.99072</v>
+        <v>0.99112</v>
       </c>
       <c r="F15" t="n">
-        <v>0.003870318041700318</v>
+        <v>0.003798636502226276</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1086017676089933</v>
+        <v>0.1025477979067037</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9891847253244554</v>
+        <v>0.9891854174893731</v>
       </c>
       <c r="I15" t="n">
         <v>0.9892</v>
@@ -1796,25 +2086,25 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.003033083916760395</v>
+        <v>0.002919852384299644</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08316675310845506</v>
+        <v>0.07992263060205579</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9906359239569569</v>
+        <v>0.9913545484435889</v>
       </c>
       <c r="E16" t="n">
-        <v>0.99064</v>
+        <v>0.99136</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003827356173928398</v>
+        <v>0.0037737913446931</v>
       </c>
       <c r="G16" t="n">
-        <v>0.107382325461471</v>
+        <v>0.1017834339869674</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9891847253244554</v>
+        <v>0.9891854174893731</v>
       </c>
       <c r="I16" t="n">
         <v>0.9892</v>
@@ -1825,28 +2115,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.003001231203367063</v>
+        <v>0.002887209731490157</v>
       </c>
       <c r="C17" t="n">
-        <v>0.08209000801705336</v>
+        <v>0.07891301963171361</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9907952528064791</v>
+        <v>0.9915142132764976</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9908</v>
+        <v>0.99152</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00379166299009448</v>
+        <v>0.003756204338909038</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1062849592461646</v>
+        <v>0.1012462247786463</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9887806746498289</v>
+        <v>0.9891854174893731</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9888</v>
+        <v>0.9892</v>
       </c>
     </row>
     <row r="18">
@@ -1854,86 +2144,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.002971297977848395</v>
+        <v>0.002858474536279613</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08109562090771177</v>
+        <v>0.07803569363124831</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9908752107823442</v>
+        <v>0.991754541022094</v>
       </c>
       <c r="E18" t="n">
-        <v>0.99088</v>
+        <v>0.99176</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00376259827023093</v>
+        <v>0.003742932023825476</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1053195780104567</v>
+        <v>0.1008637365663021</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9883798113896549</v>
+        <v>0.9891854174893731</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9883999999999999</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.002943266356292348</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.08017721475748948</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.9910360239119126</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.99104</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.00373933851517348</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.1044853342936086</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.9883798113896549</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.9883999999999999</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.002917035312225389</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.07932676809540898</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.9911954310964166</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.9912</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.00372103455461119</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.1037748701303492</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.9883798113896549</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.9883999999999999</v>
+        <v>0.9892</v>
       </c>
     </row>
   </sheetData>
@@ -1947,7 +2179,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2002,28 +2234,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.004876976246628386</v>
+        <v>0.004883833602200826</v>
       </c>
       <c r="C2" t="n">
-        <v>0.135634947557582</v>
+        <v>0.1352666025038589</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9861972589888912</v>
+        <v>0.9863666819539342</v>
       </c>
       <c r="E2" t="n">
-        <v>0.98624</v>
+        <v>0.9864000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>0.005973179257712729</v>
+        <v>0.00599890221830822</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1597382449287639</v>
+        <v>0.1594628083067066</v>
       </c>
       <c r="H2" t="n">
-        <v>0.982346450606842</v>
+        <v>0.9831506989210004</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9824000000000001</v>
+        <v>0.9832</v>
       </c>
     </row>
     <row r="3">
@@ -2031,28 +2263,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00438788037211441</v>
+        <v>0.00433596748028744</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1222208047748736</v>
+        <v>0.120329175558647</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9882196777907314</v>
+        <v>0.9885402019259393</v>
       </c>
       <c r="E3" t="n">
-        <v>0.98824</v>
+        <v>0.98856</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005581409722681377</v>
+        <v>0.005498259345352276</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1483068542763374</v>
+        <v>0.1459483050754286</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9843633505319258</v>
+        <v>0.9847674017298449</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9844000000000001</v>
+        <v>0.9848</v>
       </c>
     </row>
     <row r="4">
@@ -2060,28 +2292,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.004112362056360097</v>
+        <v>0.003981533236463244</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1153717492637846</v>
+        <v>0.1113517412932647</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9883835081617596</v>
+        <v>0.9890246047155991</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9883999999999999</v>
+        <v>0.98904</v>
       </c>
       <c r="F4" t="n">
-        <v>0.005274324832176971</v>
+        <v>0.005103851147343626</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1406549841338074</v>
+        <v>0.1362768919425163</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9843645749996587</v>
+        <v>0.9851702189427231</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9844000000000001</v>
+        <v>0.9852</v>
       </c>
     </row>
     <row r="5">
@@ -2089,28 +2321,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.003920629463695294</v>
+        <v>0.003728593831594079</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1101488196337895</v>
+        <v>0.1044498580803706</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9884650641592384</v>
+        <v>0.9893468974772563</v>
       </c>
       <c r="E5" t="n">
-        <v>0.98848</v>
+        <v>0.98936</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00503062355026701</v>
+        <v>0.004788731604360981</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1344367352327024</v>
+        <v>0.1286258848293845</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9847714821161823</v>
+        <v>0.9851674411215964</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9848</v>
+        <v>0.9852</v>
       </c>
     </row>
     <row r="6">
@@ -2118,28 +2350,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.003793713324935359</v>
+        <v>0.003538382369644143</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1061902323743363</v>
+        <v>0.09891130747565251</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9888681202119183</v>
+        <v>0.9899107252453344</v>
       </c>
       <c r="E6" t="n">
-        <v>0.98888</v>
+        <v>0.98992</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004864715479333515</v>
+        <v>0.0045455244438496</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1300239679517331</v>
+        <v>0.122568848599826</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9855738893378472</v>
+        <v>0.9863702487700861</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9856</v>
+        <v>0.9864000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -2147,28 +2379,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.003703159292988898</v>
+        <v>0.003392474342065523</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1030490810483945</v>
+        <v>0.09445772313185685</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9890293283059879</v>
+        <v>0.98999164168634</v>
       </c>
       <c r="E7" t="n">
-        <v>0.98904</v>
+        <v>0.99</v>
       </c>
       <c r="F7" t="n">
-        <v>0.004739142468516104</v>
+        <v>0.004356479412454705</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1267865836666422</v>
+        <v>0.117736123317202</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9859783186410039</v>
+        <v>0.9867742844465353</v>
       </c>
       <c r="I7" t="n">
-        <v>0.986</v>
+        <v>0.9868</v>
       </c>
     </row>
     <row r="8">
@@ -2176,28 +2408,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.003627752749252221</v>
+        <v>0.003281055525251386</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1003559920965297</v>
+        <v>0.09094505990601738</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9893508315554925</v>
+        <v>0.9903116976051496</v>
       </c>
       <c r="E8" t="n">
-        <v>0.98936</v>
+        <v>0.99032</v>
       </c>
       <c r="F8" t="n">
-        <v>0.004628170321618712</v>
+        <v>0.004210901160711242</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1241380654809103</v>
+        <v>0.1139848186078333</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9863775226306271</v>
+        <v>0.9879758145880535</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9864000000000001</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="9">
@@ -2205,28 +2437,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.003552387631574065</v>
+        <v>0.003195674654748745</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09780030581597803</v>
+        <v>0.08819414823766719</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9895917027385077</v>
+        <v>0.9902313339274063</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9896</v>
+        <v>0.99024</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004514817336682351</v>
+        <v>0.00410006624326106</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1215991679705366</v>
+        <v>0.1111432843348618</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9871787266366838</v>
+        <v>0.9879758145880535</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9872</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="10">
@@ -2234,28 +2466,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.003478351634466335</v>
+        <v>0.003128758452745847</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09539500119484104</v>
+        <v>0.08601201049404189</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9893518252901656</v>
+        <v>0.9905521665800071</v>
       </c>
       <c r="E10" t="n">
-        <v>0.98936</v>
+        <v>0.99056</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004403273733414092</v>
+        <v>0.004015037228090199</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1191944963359308</v>
+        <v>0.1089961465399992</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9875779282334902</v>
+        <v>0.9883794145749109</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9876</v>
+        <v>0.9883999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -2263,25 +2495,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.003410907131620102</v>
+        <v>0.003074400801945008</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09322059662262737</v>
+        <v>0.08423645972541319</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9893512010136593</v>
+        <v>0.9909532734688785</v>
       </c>
       <c r="E11" t="n">
-        <v>0.98936</v>
+        <v>0.99096</v>
       </c>
       <c r="F11" t="n">
-        <v>0.004303871694492495</v>
+        <v>0.003948601986531773</v>
       </c>
       <c r="G11" t="n">
-        <v>0.117069538281986</v>
+        <v>0.1073527144264703</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9883791112995356</v>
+        <v>0.9883794145749109</v>
       </c>
       <c r="I11" t="n">
         <v>0.9883999999999999</v>
@@ -2292,28 +2524,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.003348080044968244</v>
+        <v>0.003028822997542247</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09120785621794404</v>
+        <v>0.08275500341608792</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9895931780113933</v>
+        <v>0.9911148086837134</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9896</v>
+        <v>0.99112</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00421685739004733</v>
+        <v>0.003896357237932823</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1151669519656467</v>
+        <v>0.1060853415450499</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9887802778350848</v>
+        <v>0.9883794145749109</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9888</v>
+        <v>0.9883999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -2321,28 +2553,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.00328919663802207</v>
+        <v>0.002989927685114172</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08933481340551186</v>
+        <v>0.08149780507492203</v>
       </c>
       <c r="D13" t="n">
-        <v>0.989672436837673</v>
+        <v>0.9911143983017077</v>
       </c>
       <c r="E13" t="n">
-        <v>0.98968</v>
+        <v>0.99112</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004139517376335361</v>
+        <v>0.003855873160351278</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1134123668835145</v>
+        <v>0.1051199951912284</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9887802778350848</v>
+        <v>0.9883794145749109</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9888</v>
+        <v>0.9883999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -2350,28 +2582,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.003237648951352669</v>
+        <v>0.002956300665250273</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08769221903543767</v>
+        <v>0.0804168787330681</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9896722456265977</v>
+        <v>0.9911952404401699</v>
       </c>
       <c r="E14" t="n">
-        <v>0.98968</v>
+        <v>0.9912</v>
       </c>
       <c r="F14" t="n">
-        <v>0.004071082804147247</v>
+        <v>0.003825270422751794</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1117940383469896</v>
+        <v>0.1044012839071442</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9883766670506118</v>
+        <v>0.9891854174893731</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9883999999999999</v>
+        <v>0.9892</v>
       </c>
     </row>
     <row r="15">
@@ -2379,202 +2611,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.003192326594035884</v>
+        <v>0.002926726165607786</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08626604642980316</v>
+        <v>0.07947399788621054</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9897538876537576</v>
+        <v>0.9912751926127763</v>
       </c>
       <c r="E15" t="n">
-        <v>0.98976</v>
+        <v>0.99128</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004011018481074681</v>
+        <v>0.003802732431540382</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1103411831270418</v>
+        <v>0.1038763144664496</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9887811145399824</v>
+        <v>0.9891854174893731</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9888</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.003150541982560678</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.08498452444990603</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.9897538876537576</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.98976</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.003958140114999848</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.1090649654724646</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.9887811145399824</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.9888</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.003110460395810107</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.08379111028633877</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.989913968272247</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.98992</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.003910995042305997</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.1079371326492841</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.9887842754342919</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.9888</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.003071293581122191</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.08265689243337697</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.9900740808140757</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.99008</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.003868524661816598</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.1069194983794567</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.9887842754342919</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.9888</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.003033085914448065</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.08157587603638218</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.9903933842183908</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.9903999999999999</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.003830199130627221</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.1059850550509702</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.9887842754342919</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.9888</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.002996243823016963</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.08055242908349657</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.9903933842183908</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.9903999999999999</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.003795752097665803</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.1051202666547372</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.9887842754342919</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.9888</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.002961096405059891</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.07958946710238243</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.9906335055545927</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.99064</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.003764886039127602</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.1043165451311147</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.9887842754342919</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.9888</v>
+        <v>0.9892</v>
       </c>
     </row>
   </sheetData>
@@ -2588,7 +2646,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2643,28 +2701,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.005047379047858352</v>
+        <v>0.004810943786830469</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1408906886754915</v>
+        <v>0.1347376454244802</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9857166587826948</v>
+        <v>0.9862814371187231</v>
       </c>
       <c r="E2" t="n">
-        <v>0.98576</v>
+        <v>0.98632</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00622283871847695</v>
+        <v>0.006000015786609567</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1673482451483264</v>
+        <v>0.1601522228390235</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9827547990480774</v>
+        <v>0.9839536477663209</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9828</v>
+        <v>0.984</v>
       </c>
     </row>
     <row r="3">
@@ -2672,28 +2730,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.004426410838648546</v>
+        <v>0.004270897240469994</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1230630219814876</v>
+        <v>0.1197774076672561</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9875757809673739</v>
+        <v>0.9879804564738505</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9876</v>
+        <v>0.988</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005717495893423207</v>
+        <v>0.005557137481495125</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1513435252936385</v>
+        <v>0.1476339170504353</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9839674127786364</v>
+        <v>0.9847714352958755</v>
       </c>
       <c r="I3" t="n">
-        <v>0.984</v>
+        <v>0.9848</v>
       </c>
     </row>
     <row r="4">
@@ -2701,25 +2759,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.004040997589125551</v>
+        <v>0.003956818290331732</v>
       </c>
       <c r="C4" t="n">
-        <v>0.113101410528381</v>
+        <v>0.1117259422159267</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9889448208785477</v>
+        <v>0.9889440141957131</v>
       </c>
       <c r="E4" t="n">
         <v>0.98896</v>
       </c>
       <c r="F4" t="n">
-        <v>0.005366259295090219</v>
+        <v>0.005265426187769967</v>
       </c>
       <c r="G4" t="n">
-        <v>0.141274236845226</v>
+        <v>0.1398654222429651</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9847754884260186</v>
+        <v>0.9847714352958755</v>
       </c>
       <c r="I4" t="n">
         <v>0.9848</v>
@@ -2730,28 +2788,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.003790375248388345</v>
+        <v>0.003754466593621707</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1066075772336487</v>
+        <v>0.1061751424788653</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9891083567062544</v>
+        <v>0.9891877743391765</v>
       </c>
       <c r="E5" t="n">
-        <v>0.98912</v>
+        <v>0.9892</v>
       </c>
       <c r="F5" t="n">
-        <v>0.005109587071316998</v>
+        <v>0.005038660243309973</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1341181930218757</v>
+        <v>0.1340622804046118</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9855725816253776</v>
+        <v>0.9851725840134232</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9856</v>
+        <v>0.9852</v>
       </c>
     </row>
     <row r="6">
@@ -2759,25 +2817,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.003627569118075984</v>
+        <v>0.003611165459159473</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1020907160735795</v>
+        <v>0.1018666296745664</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9892709481791343</v>
+        <v>0.9895908594715932</v>
       </c>
       <c r="E6" t="n">
-        <v>0.98928</v>
+        <v>0.9896</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004908086063701472</v>
+        <v>0.004849196997900843</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1288966077477664</v>
+        <v>0.129370607990403</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9855726720375499</v>
+        <v>0.9855775170377974</v>
       </c>
       <c r="I6" t="n">
         <v>0.9856</v>
@@ -2788,28 +2846,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.003512751784862978</v>
+        <v>0.003497901149062471</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09862380335752512</v>
+        <v>0.0982502498115836</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9895135010864969</v>
+        <v>0.9895910307170862</v>
       </c>
       <c r="E7" t="n">
-        <v>0.98952</v>
+        <v>0.9896</v>
       </c>
       <c r="F7" t="n">
-        <v>0.004745933566673307</v>
+        <v>0.004677306808076718</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1250221623538414</v>
+        <v>0.1252507747910321</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9855726720375499</v>
+        <v>0.9863783162529585</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9856</v>
+        <v>0.9864000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -2817,25 +2875,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.003422093681223077</v>
+        <v>0.003403669654449111</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0957427419712228</v>
+        <v>0.09514561661887613</v>
       </c>
       <c r="D8" t="n">
-        <v>0.989753636312912</v>
+        <v>0.9896726874423306</v>
       </c>
       <c r="E8" t="n">
-        <v>0.98976</v>
+        <v>0.98968</v>
       </c>
       <c r="F8" t="n">
-        <v>0.004612549833473042</v>
+        <v>0.004516399119771764</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1220780514497879</v>
+        <v>0.1214949700295196</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9863783162529584</v>
+        <v>0.9863783162529585</v>
       </c>
       <c r="I8" t="n">
         <v>0.9864000000000001</v>
@@ -2846,28 +2904,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.00334321994035965</v>
+        <v>0.003325566258689573</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09322341097550851</v>
+        <v>0.0925040017075187</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9901521586013712</v>
+        <v>0.9895131139337648</v>
       </c>
       <c r="E9" t="n">
-        <v>0.99016</v>
+        <v>0.98952</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00449921642723668</v>
+        <v>0.004372930196202945</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1197385445579092</v>
+        <v>0.1181606564370373</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9863783162529584</v>
+        <v>0.9871787266366837</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9864000000000001</v>
+        <v>0.9872</v>
       </c>
     </row>
     <row r="10">
@@ -2875,28 +2933,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.003272024707055115</v>
+        <v>0.003261722960140642</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09098569028314103</v>
+        <v>0.09028129881899212</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9901531642296219</v>
+        <v>0.9895931998498178</v>
       </c>
       <c r="E10" t="n">
-        <v>0.99016</v>
+        <v>0.9896</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004399391120868268</v>
+        <v>0.004252812327468635</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1177604622314196</v>
+        <v>0.1153197202573418</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9867795198637909</v>
+        <v>0.9875799105003347</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9868</v>
+        <v>0.9876</v>
       </c>
     </row>
     <row r="11">
@@ -2904,28 +2962,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.00320902187423064</v>
+        <v>0.003210503835082042</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08902991893143201</v>
+        <v>0.08843890116545434</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9902353403006977</v>
+        <v>0.9899946635371073</v>
       </c>
       <c r="E11" t="n">
-        <v>0.99024</v>
+        <v>0.99</v>
       </c>
       <c r="F11" t="n">
-        <v>0.004310882422657997</v>
+        <v>0.00415651305716146</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1160362955330612</v>
+        <v>0.1129863891621273</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9875806985632551</v>
+        <v>0.9879810770358841</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9876</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="12">
@@ -2933,28 +2991,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.003153397649950807</v>
+        <v>0.003169419592361215</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08731250690657706</v>
+        <v>0.08691553273366572</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9903161894603534</v>
+        <v>0.9901539919971718</v>
       </c>
       <c r="E12" t="n">
-        <v>0.99032</v>
+        <v>0.99016</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00423166075660511</v>
+        <v>0.004080522972464219</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1144829305893586</v>
+        <v>0.1111046818403659</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9875806985632551</v>
+        <v>0.988785520144388</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9876</v>
+        <v>0.9888</v>
       </c>
     </row>
     <row r="13">
@@ -2962,28 +3020,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.003103737886298627</v>
+        <v>0.003135024154398507</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08577502365892355</v>
+        <v>0.0856219980568986</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9903962813291742</v>
+        <v>0.9902342451953661</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9903999999999999</v>
+        <v>0.99024</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004158992881098333</v>
+        <v>0.004019823268747458</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1130256733174486</v>
+        <v>0.1095712122712033</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9875806985632551</v>
+        <v>0.9887835494776077</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9876</v>
+        <v>0.9888</v>
       </c>
     </row>
     <row r="14">
@@ -2991,28 +3049,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.003059078651898163</v>
+        <v>0.003104180103407747</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08437983230616808</v>
+        <v>0.0844738465160227</v>
       </c>
       <c r="D14" t="n">
-        <v>0.990396141581852</v>
+        <v>0.9903135442469825</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9903999999999999</v>
+        <v>0.99032</v>
       </c>
       <c r="F14" t="n">
-        <v>0.004090961766694503</v>
+        <v>0.003970044642199415</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1116139663811066</v>
+        <v>0.1082890905867956</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9879818650988044</v>
+        <v>0.9887835494776077</v>
       </c>
       <c r="I14" t="n">
-        <v>0.988</v>
+        <v>0.9888</v>
       </c>
     </row>
     <row r="15">
@@ -3020,28 +3078,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.003018764442050504</v>
+        <v>0.003074778361351214</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08311021222570197</v>
+        <v>0.08341250515843962</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9906369702449217</v>
+        <v>0.9903941179301112</v>
       </c>
       <c r="E15" t="n">
-        <v>0.99064</v>
+        <v>0.9903999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004027257205020286</v>
+        <v>0.003928325587423911</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1102341993980972</v>
+        <v>0.1071964681365734</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9875810018386304</v>
+        <v>0.9887835494776077</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9876</v>
+        <v>0.9888</v>
       </c>
     </row>
     <row r="16">
@@ -3049,28 +3107,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.002982225691360545</v>
+        <v>0.003045879229397472</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08195686558260656</v>
+        <v>0.08241022509205431</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9907168380941485</v>
+        <v>0.9903941179301112</v>
       </c>
       <c r="E16" t="n">
-        <v>0.99072</v>
+        <v>0.9903999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003968632470992588</v>
+        <v>0.003893243047925245</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1089037692614336</v>
+        <v>0.1062659740353833</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9875810018386304</v>
+        <v>0.9883831188987526</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9876</v>
+        <v>0.9883999999999999</v>
       </c>
     </row>
     <row r="17">
@@ -3078,28 +3136,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.002948912568737525</v>
+        <v>0.003017474749228173</v>
       </c>
       <c r="C17" t="n">
-        <v>0.08090805823897827</v>
+        <v>0.08146296573220867</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9907968099014124</v>
+        <v>0.9906350528952036</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9908</v>
+        <v>0.99064</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003915974572195583</v>
+        <v>0.00386427194148827</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1076503469471279</v>
+        <v>0.1054893829676404</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9875810018386304</v>
+        <v>0.9883831188987526</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9876</v>
+        <v>0.9883999999999999</v>
       </c>
     </row>
     <row r="18">
@@ -3107,144 +3165,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.002918263125185577</v>
+        <v>0.00298996208324334</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07994683632953524</v>
+        <v>0.08057610413499751</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9907968099014124</v>
+        <v>0.9907150452324366</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9908</v>
+        <v>0.99072</v>
       </c>
       <c r="F18" t="n">
-        <v>0.003869729988104336</v>
+        <v>0.003841100155862899</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1064935272249764</v>
+        <v>0.1048627471787053</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9879802109900547</v>
+        <v>0.9879819454663747</v>
       </c>
       <c r="I18" t="n">
         <v>0.988</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.002889732653763202</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.07905368893160772</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.9908760902134885</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.99088</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.003829862477942046</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.1054401864924321</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.9887805472623752</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.9888</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.002862894693129382</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.07821162771590076</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.9911160073728155</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.99112</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.003796078933197381</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.1044899306837135</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.9887805472623752</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.9888</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.002837516096456888</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.07740996044364414</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.9910360353519053</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.99104</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.003767964414653226</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.1036404777556457</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.9887805472623752</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.9888</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.002813557008207356</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.07664559251471634</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.9913562440725803</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.99136</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.003744972508180958</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.1028897659849591</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.9887805472623752</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.9888</v>
       </c>
     </row>
   </sheetData>

--- a/Networks/Parte3/errors.xlsx
+++ b/Networks/Parte3/errors.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,28 +485,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.008984570859816632</v>
+        <v>0.009221192915756852</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2690667197050469</v>
+        <v>0.2780109710418208</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9741886715057028</v>
+        <v>0.9720264383585701</v>
       </c>
       <c r="E2" t="n">
-        <v>0.97432</v>
+        <v>0.97216</v>
       </c>
       <c r="F2" t="n">
-        <v>0.009764595899505559</v>
+        <v>0.01023249569072365</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2857862070314666</v>
+        <v>0.3071959826978543</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9710934489829979</v>
+        <v>0.9686648049447099</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9712</v>
+        <v>0.9688</v>
       </c>
     </row>
     <row r="3">
@@ -514,28 +514,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.008114780022442781</v>
+        <v>0.007640577725945755</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2378980585495055</v>
+        <v>0.2294265500167894</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9750992481918731</v>
+        <v>0.9775411521519605</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9752</v>
+        <v>0.9776</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00909684491437888</v>
+        <v>0.009046549408873722</v>
       </c>
       <c r="G3" t="n">
-        <v>0.257883952776887</v>
+        <v>0.2665258285869955</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9731273639591134</v>
+        <v>0.9719243302126251</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9732</v>
+        <v>0.972</v>
       </c>
     </row>
     <row r="4">
@@ -543,28 +543,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.007795638465866638</v>
+        <v>0.007036548016044934</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2256852687613283</v>
+        <v>0.2117156393058569</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9773498930600206</v>
+        <v>0.9794931072987122</v>
       </c>
       <c r="E4" t="n">
-        <v>0.97744</v>
+        <v>0.9795199999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.008945917008684629</v>
+        <v>0.008553361050956039</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2499028557345215</v>
+        <v>0.2508723121726676</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9727439082674241</v>
+        <v>0.9743368101765035</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9728</v>
+        <v>0.9744</v>
       </c>
     </row>
     <row r="5">
@@ -572,28 +572,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.007699716146653851</v>
+        <v>0.006778912584211697</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2208805997109107</v>
+        <v>0.2043718393148056</v>
       </c>
       <c r="D5" t="n">
-        <v>0.977284858895857</v>
+        <v>0.9806963535288938</v>
       </c>
       <c r="E5" t="n">
-        <v>0.97736</v>
+        <v>0.98072</v>
       </c>
       <c r="F5" t="n">
-        <v>0.008896079246815819</v>
+        <v>0.008248621613150297</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2473920319974359</v>
+        <v>0.2429931839612616</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9743592402879072</v>
+        <v>0.97555304145717</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9744</v>
+        <v>0.9756</v>
       </c>
     </row>
     <row r="6">
@@ -601,28 +601,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.007733652101165228</v>
+        <v>0.006573752185800735</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2205847207248315</v>
+        <v>0.1987310463265534</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9772014576322011</v>
+        <v>0.9811775556222809</v>
       </c>
       <c r="E6" t="n">
-        <v>0.97728</v>
+        <v>0.9812</v>
       </c>
       <c r="F6" t="n">
-        <v>0.008864157552722856</v>
+        <v>0.007955115848080695</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2465223240391547</v>
+        <v>0.2355664230826928</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9739446431073334</v>
+        <v>0.9767592744787104</v>
       </c>
       <c r="I6" t="n">
-        <v>0.974</v>
+        <v>0.9768</v>
       </c>
     </row>
     <row r="7">
@@ -630,28 +630,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.007450307675510207</v>
+        <v>0.006418657374449888</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2136967573986476</v>
+        <v>0.1948228003760696</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9775994520582358</v>
+        <v>0.9816564515881032</v>
       </c>
       <c r="E7" t="n">
-        <v>0.97768</v>
+        <v>0.98168</v>
       </c>
       <c r="F7" t="n">
-        <v>0.008748194355883651</v>
+        <v>0.007741660316842955</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2432706707687193</v>
+        <v>0.2292376717177289</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9739446431073334</v>
+        <v>0.9767574000210912</v>
       </c>
       <c r="I7" t="n">
-        <v>0.974</v>
+        <v>0.9768</v>
       </c>
     </row>
     <row r="8">
@@ -659,28 +659,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.007243921573685397</v>
+        <v>0.006185914571168876</v>
       </c>
       <c r="C8" t="n">
-        <v>0.209020935869541</v>
+        <v>0.1890830103420193</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9775249698564368</v>
+        <v>0.9819739626472967</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9776</v>
+        <v>0.982</v>
       </c>
       <c r="F8" t="n">
-        <v>0.008885589096814655</v>
+        <v>0.007529373865140204</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2472955583670481</v>
+        <v>0.2221295792887394</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9727520397345331</v>
+        <v>0.9783611658259528</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9728</v>
+        <v>0.9784</v>
       </c>
     </row>
     <row r="9">
@@ -688,28 +688,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.007212244674937852</v>
+        <v>0.005945676639457498</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2081642845363313</v>
+        <v>0.18031878272771</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9767247173352205</v>
+        <v>0.9828376352296229</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9768</v>
+        <v>0.98288</v>
       </c>
       <c r="F9" t="n">
-        <v>0.008910237058209787</v>
+        <v>0.007362268174487444</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2486925962801752</v>
+        <v>0.2148136009209876</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9731546430583734</v>
+        <v>0.9783416933698861</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9732</v>
+        <v>0.9784</v>
       </c>
     </row>
     <row r="10">
@@ -717,28 +717,144 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.007196256443896445</v>
+        <v>0.005833422359347828</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2073358795597562</v>
+        <v>0.1759994323559094</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9772104416752312</v>
+        <v>0.9824387433236375</v>
       </c>
       <c r="E10" t="n">
-        <v>0.97728</v>
+        <v>0.98248</v>
       </c>
       <c r="F10" t="n">
-        <v>0.008874222822996686</v>
+        <v>0.00728934568175755</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2476914368845076</v>
+        <v>0.2121262667428375</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9731560126444123</v>
+        <v>0.9795435306473472</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9732</v>
+        <v>0.9796</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.005851759273506697</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1745888253628538</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9827679022330879</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9828</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0072726092876825</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.2110096799327879</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.9787451655205807</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.9788</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.005956767492281961</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1760852141642053</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.9823735996309797</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9824000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.007266179832880323</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.2112993502329194</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.9799494908944467</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.006055994873421474</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.1779579469363982</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9822972405522432</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.98232</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.007252253763412912</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.2115024272385548</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.9799448194294736</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.006105433969559544</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.178918242144958</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9822967456264923</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.98232</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.00722483921316669</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.2110901868572365</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.9799448194294736</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.98</v>
       </c>
     </row>
   </sheetData>
@@ -752,7 +868,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -807,28 +923,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.005245749250625405</v>
+        <v>0.005501645817133274</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1550133182721247</v>
+        <v>0.1608848455420943</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9847530244989722</v>
+        <v>0.9843470141719035</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9848</v>
+        <v>0.9844000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00636646628488603</v>
+        <v>0.006691406074318181</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1785251230733404</v>
+        <v>0.1862035096966794</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9803402994703287</v>
+        <v>0.9795207401775154</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9804</v>
+        <v>0.9796</v>
       </c>
     </row>
     <row r="3">
@@ -836,28 +952,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.004677868152384754</v>
+        <v>0.004583121300342917</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1348702259799845</v>
+        <v>0.132445994988837</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9862100468373571</v>
+        <v>0.9864455297064193</v>
       </c>
       <c r="E3" t="n">
-        <v>0.98624</v>
+        <v>0.98648</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005902572849904546</v>
+        <v>0.005909900882525569</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1619464501115427</v>
+        <v>0.1613791933328054</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9827582057803699</v>
+        <v>0.9823488252093909</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9828</v>
+        <v>0.9824000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -865,28 +981,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.004350950655668475</v>
+        <v>0.004084161346941366</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1250827783855782</v>
+        <v>0.1194359310106366</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9868565422926983</v>
+        <v>0.987978137176451</v>
       </c>
       <c r="E4" t="n">
-        <v>0.98688</v>
+        <v>0.988</v>
       </c>
       <c r="F4" t="n">
-        <v>0.005646290651256443</v>
+        <v>0.005458435976547949</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1540785132829124</v>
+        <v>0.1484737442708166</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9835685015207861</v>
+        <v>0.9843685838503348</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9836</v>
+        <v>0.9844000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -894,28 +1010,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.004073817800827068</v>
+        <v>0.003885465374828851</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1180382097899104</v>
+        <v>0.113530219837219</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9879860513329115</v>
+        <v>0.9885444894139747</v>
       </c>
       <c r="E5" t="n">
-        <v>0.988</v>
+        <v>0.98856</v>
       </c>
       <c r="F5" t="n">
-        <v>0.005424193880084979</v>
+        <v>0.005259277157646278</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1482288613429124</v>
+        <v>0.1423005529482228</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9839697552540759</v>
+        <v>0.9843669993414043</v>
       </c>
       <c r="I5" t="n">
-        <v>0.984</v>
+        <v>0.9844000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -923,25 +1039,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.003913789015885493</v>
+        <v>0.003835612717281208</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1138879807000628</v>
+        <v>0.1108995387995824</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9885493590782179</v>
+        <v>0.9889474596461048</v>
       </c>
       <c r="E6" t="n">
-        <v>0.98856</v>
+        <v>0.98896</v>
       </c>
       <c r="F6" t="n">
-        <v>0.005259719556719209</v>
+        <v>0.005167586231015956</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1442997026922972</v>
+        <v>0.1396046755317432</v>
       </c>
       <c r="H6" t="n">
-        <v>0.98396492513607</v>
+        <v>0.983968192141934</v>
       </c>
       <c r="I6" t="n">
         <v>0.984</v>
@@ -952,28 +1068,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.003833409220588395</v>
+        <v>0.003807875346363391</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1113538059929542</v>
+        <v>0.1089444474393756</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9888721527919188</v>
+        <v>0.9887104940177277</v>
       </c>
       <c r="E7" t="n">
-        <v>0.98888</v>
+        <v>0.98872</v>
       </c>
       <c r="F7" t="n">
-        <v>0.005144385971509943</v>
+        <v>0.005100524010407313</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1416952262509109</v>
+        <v>0.1375828398525077</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9855686212588172</v>
+        <v>0.9843718413322268</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9856</v>
+        <v>0.9844000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -981,28 +1097,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.003797678479255254</v>
+        <v>0.003776145452515</v>
       </c>
       <c r="C8" t="n">
-        <v>0.109722666721703</v>
+        <v>0.1071926632746036</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9887917687036323</v>
+        <v>0.9887915400686845</v>
       </c>
       <c r="E8" t="n">
         <v>0.9888</v>
       </c>
       <c r="F8" t="n">
-        <v>0.005059133831241246</v>
+        <v>0.005043361273015742</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1398185198479521</v>
+        <v>0.1356704763407919</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9855681954021946</v>
+        <v>0.9843689262365377</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9856</v>
+        <v>0.9844000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -1010,28 +1126,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.003773816049612382</v>
+        <v>0.003741018050133227</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1082815125326933</v>
+        <v>0.10559453579863</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9887930977962054</v>
+        <v>0.9891120372914152</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9888</v>
+        <v>0.98912</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004988155191876105</v>
+        <v>0.004984638614136975</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1380902887984632</v>
+        <v>0.1338016880619676</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9851693743702056</v>
+        <v>0.9843689262365377</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9852</v>
+        <v>0.9844000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -1039,28 +1155,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.00375881377100159</v>
+        <v>0.003702073661557533</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1070846735137209</v>
+        <v>0.1040590678989624</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9887129586866751</v>
+        <v>0.9891910140981324</v>
       </c>
       <c r="E10" t="n">
-        <v>0.98872</v>
+        <v>0.9892</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004939489052902417</v>
+        <v>0.004921127636388617</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1366951636301508</v>
+        <v>0.1319222910706325</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9851693743702056</v>
+        <v>0.984772923409229</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9852</v>
+        <v>0.9848</v>
       </c>
     </row>
     <row r="11">
@@ -1068,28 +1184,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.003753087861654707</v>
+        <v>0.003659510750782621</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1061496164592227</v>
+        <v>0.1025419853025335</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9887947375595706</v>
+        <v>0.9894320811228308</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9888</v>
+        <v>0.98944</v>
       </c>
       <c r="F11" t="n">
-        <v>0.004899940675503258</v>
+        <v>0.004856993422309019</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1354586904005466</v>
+        <v>0.1300960724789651</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9859745383254357</v>
+        <v>0.9851737406103049</v>
       </c>
       <c r="I11" t="n">
-        <v>0.986</v>
+        <v>0.9852</v>
       </c>
     </row>
     <row r="12">
@@ -1097,28 +1213,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.003749166420607158</v>
+        <v>0.003613945672495111</v>
       </c>
       <c r="C12" t="n">
-        <v>0.105312105175814</v>
+        <v>0.1010336752945397</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9884746448588088</v>
+        <v>0.9894327564399262</v>
       </c>
       <c r="E12" t="n">
-        <v>0.98848</v>
+        <v>0.98944</v>
       </c>
       <c r="F12" t="n">
-        <v>0.004858231142883284</v>
+        <v>0.00479611262208676</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1341529110219474</v>
+        <v>0.1284007789041458</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9855728495443078</v>
+        <v>0.985170140216324</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9856</v>
+        <v>0.9852</v>
       </c>
     </row>
     <row r="13">
@@ -1126,28 +1242,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.003740837609707237</v>
+        <v>0.003566228262326158</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1044517421155099</v>
+        <v>0.09954234345137553</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9886330583125058</v>
+        <v>0.9893535588830975</v>
       </c>
       <c r="E13" t="n">
-        <v>0.98864</v>
+        <v>0.98936</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004808186364463981</v>
+        <v>0.004740356741783144</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1326620545855852</v>
+        <v>0.126869468853218</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9855728495443078</v>
+        <v>0.9859677728325307</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9856</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="14">
@@ -1155,28 +1271,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.003725180315520057</v>
+        <v>0.003517577224651795</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1035179788800418</v>
+        <v>0.0980882526986919</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9886329794129576</v>
+        <v>0.9894349177956361</v>
       </c>
       <c r="E14" t="n">
-        <v>0.98864</v>
+        <v>0.98944</v>
       </c>
       <c r="F14" t="n">
-        <v>0.004748586165235122</v>
+        <v>0.00468975818913492</v>
       </c>
       <c r="G14" t="n">
-        <v>0.130982885835638</v>
+        <v>0.1254895077957572</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9855728495443078</v>
+        <v>0.9863694245347622</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9856</v>
+        <v>0.9864000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -1184,28 +1300,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.003702273746436884</v>
+        <v>0.003469767813195251</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1025087042566109</v>
+        <v>0.09670549045185432</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9887936109705802</v>
+        <v>0.98951562153953</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9888</v>
+        <v>0.98952</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004680723469313879</v>
+        <v>0.004642962572736622</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1291626973858714</v>
+        <v>0.1242305720994014</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9859735590935316</v>
+        <v>0.9863694245347622</v>
       </c>
       <c r="I15" t="n">
-        <v>0.986</v>
+        <v>0.9864000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -1213,25 +1329,25 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.003673701677603337</v>
+        <v>0.003424758132155985</v>
       </c>
       <c r="C16" t="n">
-        <v>0.10143872087124</v>
+        <v>0.0954324091351036</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9888742977656513</v>
+        <v>0.9895955859147054</v>
       </c>
       <c r="E16" t="n">
-        <v>0.98888</v>
+        <v>0.9896</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0046068718650661</v>
+        <v>0.004599025358079345</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1272583473050133</v>
+        <v>0.1230860474669835</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9863727448186369</v>
+        <v>0.9863694245347622</v>
       </c>
       <c r="I16" t="n">
         <v>0.9864000000000001</v>
@@ -1242,28 +1358,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.003641569526463534</v>
+        <v>0.003383758364967846</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1003279930712815</v>
+        <v>0.0942883289612915</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9890351120865208</v>
+        <v>0.9897556661486163</v>
       </c>
       <c r="E17" t="n">
-        <v>0.98904</v>
+        <v>0.98976</v>
       </c>
       <c r="F17" t="n">
-        <v>0.004530763758835171</v>
+        <v>0.004557810717980661</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1253401248875775</v>
+        <v>0.122064783486692</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9871784688329133</v>
+        <v>0.9863694245347622</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9872</v>
+        <v>0.9864000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -1271,25 +1387,25 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.003607821834755688</v>
+        <v>0.00334697280178622</v>
       </c>
       <c r="C18" t="n">
-        <v>0.09918940236412097</v>
+        <v>0.09326801395859559</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9890340161460252</v>
+        <v>0.9898357818791595</v>
       </c>
       <c r="E18" t="n">
-        <v>0.98904</v>
+        <v>0.9898400000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>0.004454891462603227</v>
+        <v>0.004518906511386876</v>
       </c>
       <c r="G18" t="n">
-        <v>0.123455272746603</v>
+        <v>0.1211564165805312</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9867792779503894</v>
+        <v>0.9867710523852947</v>
       </c>
       <c r="I18" t="n">
         <v>0.9868</v>
@@ -1300,25 +1416,25 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.003573083343043274</v>
+        <v>0.003313978882345052</v>
       </c>
       <c r="C19" t="n">
-        <v>0.09801741504172182</v>
+        <v>0.09235310333157752</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9891141539876791</v>
+        <v>0.989755816725135</v>
       </c>
       <c r="E19" t="n">
-        <v>0.98912</v>
+        <v>0.98976</v>
       </c>
       <c r="F19" t="n">
-        <v>0.004377457912492341</v>
+        <v>0.004481641176402859</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1215936022141408</v>
+        <v>0.120333685329765</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9875787995282185</v>
+        <v>0.9875698448580289</v>
       </c>
       <c r="I19" t="n">
         <v>0.9876</v>
@@ -1329,289 +1445,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.003537405570084634</v>
+        <v>0.003284142647368981</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09682638096272028</v>
+        <v>0.09152345102990958</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9891123337114929</v>
+        <v>0.989755816725135</v>
       </c>
       <c r="E20" t="n">
-        <v>0.98912</v>
+        <v>0.98976</v>
       </c>
       <c r="F20" t="n">
-        <v>0.004298145792158579</v>
+        <v>0.004445575380208916</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1197565825778751</v>
+        <v>0.1195702008915684</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9875787995282185</v>
+        <v>0.9875698448580289</v>
       </c>
       <c r="I20" t="n">
         <v>0.9876</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.003496487600863024</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.09552584624844351</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.9891123337114929</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.98912</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.004219169831277936</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.1179262432189572</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.9887782657943982</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.9888</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.003443084154367469</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0939764762587678</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.9895139793380322</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.98952</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.004140387531036574</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.1160565473950785</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.9887782657943982</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.9888</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.003381512849502303</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.09227740763378653</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.989754229426534</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.98976</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.004069742532185194</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.1142608505750186</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.9887782657943982</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.9888</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.003319360621094792</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.09054227761184541</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.990154104743494</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.99016</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.004012076815594189</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.1126091135215057</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.9891795097095006</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.9892</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.003261367119014418</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.08889415373327871</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.9905542926690536</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.99056</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.003969333513491474</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.1111571630760406</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.9891795097095006</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.9892</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.003210964950823846</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.08745093508987493</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.9906349066810245</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.99064</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.00394096038453913</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.1099693194504556</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.9895831181011472</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.9896</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0.003168900666536201</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.08624277482622027</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.9905547952327121</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.99056</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.003923052940146261</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.109054911896373</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.9895831181011472</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.9896</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0.003133620946446016</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.08522637097250697</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.9905555644371076</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.99056</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.003910539646132487</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.1083513125431025</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.9895831181011472</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.9896</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.003102906806188115</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.08434257752629748</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.9905555644371076</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.99056</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.003899942186875306</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.1077813840176252</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.9895831181011472</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.9896</v>
       </c>
     </row>
   </sheetData>
@@ -1625,7 +1480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1680,28 +1535,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.004847646924480872</v>
+        <v>0.004797350160699079</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1387651852067802</v>
+        <v>0.1372035885324255</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9862875720240234</v>
+        <v>0.9859630089176259</v>
       </c>
       <c r="E2" t="n">
-        <v>0.98632</v>
+        <v>0.986</v>
       </c>
       <c r="F2" t="n">
-        <v>0.006041461831096909</v>
+        <v>0.005963582147109434</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1640568079698103</v>
+        <v>0.1620176202784105</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9827624545651357</v>
+        <v>0.9831616487976425</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9828</v>
+        <v>0.9832</v>
       </c>
     </row>
     <row r="3">
@@ -1709,25 +1564,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.004395046897034236</v>
+        <v>0.004251040464393191</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1245167582425175</v>
+        <v>0.1213589577241636</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9878242084324184</v>
+        <v>0.9876591972546827</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9878400000000001</v>
+        <v>0.98768</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0056241435223405</v>
+        <v>0.005485055780516545</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1521141867544806</v>
+        <v>0.1481557592731832</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9839710647998799</v>
+        <v>0.9839685929669022</v>
       </c>
       <c r="I3" t="n">
         <v>0.984</v>
@@ -1738,25 +1593,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.00409319111045504</v>
+        <v>0.00393687661011541</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1162103741803665</v>
+        <v>0.1124546907814096</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9885472114028844</v>
+        <v>0.9883062024076615</v>
       </c>
       <c r="E4" t="n">
-        <v>0.98856</v>
+        <v>0.98832</v>
       </c>
       <c r="F4" t="n">
-        <v>0.005328345445054892</v>
+        <v>0.005214179414306107</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1440239110966595</v>
+        <v>0.1396060169035539</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9843674072892654</v>
+        <v>0.9843733764500626</v>
       </c>
       <c r="I4" t="n">
         <v>0.9844000000000001</v>
@@ -1767,28 +1622,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.003884108920580613</v>
+        <v>0.003739113657573528</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1102416736394693</v>
+        <v>0.1064921147965705</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9891100999559976</v>
+        <v>0.9886284016873301</v>
       </c>
       <c r="E5" t="n">
-        <v>0.98912</v>
+        <v>0.98864</v>
       </c>
       <c r="F5" t="n">
-        <v>0.005094926326456424</v>
+        <v>0.005028899880059351</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1374777469188407</v>
+        <v>0.1338930287544061</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9855690253152252</v>
+        <v>0.9843714325197437</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9856</v>
+        <v>0.9844000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -1796,28 +1651,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.003738667203117958</v>
+        <v>0.003590093675476356</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1058114969751829</v>
+        <v>0.1017741503082645</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9893520635463947</v>
+        <v>0.9892716772144515</v>
       </c>
       <c r="E6" t="n">
-        <v>0.98936</v>
+        <v>0.98928</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00490171435241777</v>
+        <v>0.0048736928083446</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1320502058375688</v>
+        <v>0.1292993267525793</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9855686447324288</v>
+        <v>0.9851775142616657</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9856</v>
+        <v>0.9852</v>
       </c>
     </row>
     <row r="7">
@@ -1825,28 +1680,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.003625693120535586</v>
+        <v>0.003472134772914461</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1021669553714873</v>
+        <v>0.09791271620811945</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9896734604500027</v>
+        <v>0.9895918934156309</v>
       </c>
       <c r="E7" t="n">
-        <v>0.98968</v>
+        <v>0.9896</v>
       </c>
       <c r="F7" t="n">
-        <v>0.004723533009277267</v>
+        <v>0.004736071304500666</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1271042237639289</v>
+        <v>0.1254718567017987</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9859730764284022</v>
+        <v>0.9851775142616657</v>
       </c>
       <c r="I7" t="n">
-        <v>0.986</v>
+        <v>0.9852</v>
       </c>
     </row>
     <row r="8">
@@ -1854,28 +1709,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.003525622684338948</v>
+        <v>0.003378335460594012</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0988379910143128</v>
+        <v>0.09476135801094254</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9895934676095756</v>
+        <v>0.9897527865795155</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9896</v>
+        <v>0.98976</v>
       </c>
       <c r="F8" t="n">
-        <v>0.004546553655703432</v>
+        <v>0.004612979103112485</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1223355246308621</v>
+        <v>0.1223006014380098</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9863746933482801</v>
+        <v>0.9855775170377974</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9864000000000001</v>
+        <v>0.9856</v>
       </c>
     </row>
     <row r="9">
@@ -1883,25 +1738,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.003430395844663721</v>
+        <v>0.003301066365629151</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09567727263806627</v>
+        <v>0.09213858510889651</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9898329712299343</v>
+        <v>0.989913474090986</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9898400000000001</v>
+        <v>0.98992</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004377228493806852</v>
+        <v>0.004502827592996852</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1179198275801009</v>
+        <v>0.1196466919052487</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9863746933482801</v>
+        <v>0.9863795222518364</v>
       </c>
       <c r="I9" t="n">
         <v>0.9864000000000001</v>
@@ -1912,28 +1767,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.003336393410553046</v>
+        <v>0.003235915789088307</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09265406067370416</v>
+        <v>0.0899321452528493</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9899942076411488</v>
+        <v>0.9900733938616479</v>
       </c>
       <c r="E10" t="n">
-        <v>0.99</v>
+        <v>0.99008</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004221829693702513</v>
+        <v>0.004402477091665175</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1140100405657151</v>
+        <v>0.1173590650993022</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9867734961422924</v>
+        <v>0.9863795222518364</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9868</v>
+        <v>0.9864000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -1941,28 +1796,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.00324020063472395</v>
+        <v>0.003181644398575184</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08967207708756197</v>
+        <v>0.08809566405408202</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9902337563855816</v>
+        <v>0.9903139846613096</v>
       </c>
       <c r="E11" t="n">
-        <v>0.99024</v>
+        <v>0.99032</v>
       </c>
       <c r="F11" t="n">
-        <v>0.004084499280392942</v>
+        <v>0.004310479216810368</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1105431771395392</v>
+        <v>0.1153376577445742</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9875766694410431</v>
+        <v>0.9867795198637909</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9876</v>
+        <v>0.9868</v>
       </c>
     </row>
     <row r="12">
@@ -1970,28 +1825,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.003145666773546771</v>
+        <v>0.003136888091561519</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08682571554352493</v>
+        <v>0.08657585662834495</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9906330304782662</v>
+        <v>0.9903150843791384</v>
       </c>
       <c r="E12" t="n">
-        <v>0.99064</v>
+        <v>0.99032</v>
       </c>
       <c r="F12" t="n">
-        <v>0.003971859290620034</v>
+        <v>0.00422746628398479</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1075526949266695</v>
+        <v>0.113527462659961</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9883802786326903</v>
+        <v>0.9867795198637909</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9883999999999999</v>
+        <v>0.9868</v>
       </c>
     </row>
     <row r="13">
@@ -1999,28 +1854,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.003066062192996238</v>
+        <v>0.003099973645620046</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08443384407420035</v>
+        <v>0.0853134332263133</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9908742281660217</v>
+        <v>0.9903950525454375</v>
       </c>
       <c r="E13" t="n">
-        <v>0.99088</v>
+        <v>0.9903999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>0.00388976618294006</v>
+        <v>0.004154001706650139</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1052481097708717</v>
+        <v>0.1119004487664221</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9879794153725164</v>
+        <v>0.9863786969013386</v>
       </c>
       <c r="I13" t="n">
-        <v>0.988</v>
+        <v>0.9864000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -2028,28 +1883,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.003005419476226583</v>
+        <v>0.003069474573826977</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08257990408991532</v>
+        <v>0.08425817119433443</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9908741147651421</v>
+        <v>0.9905552331208838</v>
       </c>
       <c r="E14" t="n">
-        <v>0.99088</v>
+        <v>0.99056</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003835057435854036</v>
+        <v>0.004089569983465271</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1036470541010958</v>
+        <v>0.1104373732842801</v>
       </c>
       <c r="H14" t="n">
-        <v>0.988780547262375</v>
+        <v>0.9863786969013386</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9888</v>
+        <v>0.9864000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -2057,28 +1912,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.002958287718098143</v>
+        <v>0.003044132810442813</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08111847367945511</v>
+        <v>0.08336747741976443</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9911146471545864</v>
+        <v>0.9906366451721766</v>
       </c>
       <c r="E15" t="n">
-        <v>0.99112</v>
+        <v>0.99064</v>
       </c>
       <c r="F15" t="n">
-        <v>0.003798636502226276</v>
+        <v>0.004032860962191621</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1025477979067037</v>
+        <v>0.1091182695436384</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9891854174893731</v>
+        <v>0.9871847077314457</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9892</v>
+        <v>0.9872</v>
       </c>
     </row>
     <row r="16">
@@ -2086,28 +1941,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.002919852384299644</v>
+        <v>0.003022768893504986</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07992263060205579</v>
+        <v>0.08260358262961554</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9913545484435889</v>
+        <v>0.9907976343759636</v>
       </c>
       <c r="E16" t="n">
-        <v>0.99136</v>
+        <v>0.9908</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0037737913446931</v>
+        <v>0.003982304179386439</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1017834339869674</v>
+        <v>0.1079217978875383</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9891854174893731</v>
+        <v>0.98798507303988</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9892</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="17">
@@ -2115,28 +1970,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.002887209731490157</v>
+        <v>0.003004266160128712</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07891301963171361</v>
+        <v>0.0819320709253606</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9915142132764976</v>
+        <v>0.9908767945732547</v>
       </c>
       <c r="E17" t="n">
-        <v>0.99152</v>
+        <v>0.99088</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003756204338909038</v>
+        <v>0.003936447947125077</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1012462247786463</v>
+        <v>0.1068265053433948</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9891854174893731</v>
+        <v>0.9887854182869784</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9892</v>
+        <v>0.9888</v>
       </c>
     </row>
     <row r="18">
@@ -2144,27 +1999,114 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.002858474536279613</v>
+        <v>0.002987543980215649</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07803569363124831</v>
+        <v>0.08132016799376046</v>
       </c>
       <c r="D18" t="n">
-        <v>0.991754541022094</v>
+        <v>0.9908767945732547</v>
       </c>
       <c r="E18" t="n">
-        <v>0.99176</v>
+        <v>0.99088</v>
       </c>
       <c r="F18" t="n">
-        <v>0.003742932023825476</v>
+        <v>0.003894187814590582</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1008637365663021</v>
+        <v>0.105812650239878</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9891854174893731</v>
+        <v>0.9891865482778652</v>
       </c>
       <c r="I18" t="n">
+        <v>0.9892</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.002971517135192415</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0807352224782044</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9909576840919028</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.99096</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.003854840807376146</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.1048639479550773</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.9891865482778652</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.9892</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.002955104456360556</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.08014548082050352</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9908779448804447</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.99088</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.003818045244875851</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.1039686519686333</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.9891865482778652</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.9892</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.002937353639252213</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.07952492408113285</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9909574249465969</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.99096</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.003783583468993159</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.1031212104273842</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.9891865482778652</v>
+      </c>
+      <c r="I21" t="n">
         <v>0.9892</v>
       </c>
     </row>
@@ -2179,7 +2121,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2234,28 +2176,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.004883833602200826</v>
+        <v>0.004869871370093326</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1352666025038589</v>
+        <v>0.135303201973764</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9863666819539342</v>
+        <v>0.9862003774757573</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9864000000000001</v>
+        <v>0.98624</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00599890221830822</v>
+        <v>0.005946511442480312</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1594628083067066</v>
+        <v>0.1595128335726798</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9831506989210004</v>
+        <v>0.9823464541639888</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9832</v>
+        <v>0.9824000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -2263,25 +2205,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00433596748028744</v>
+        <v>0.004351034119356535</v>
       </c>
       <c r="C3" t="n">
-        <v>0.120329175558647</v>
+        <v>0.1209718244309632</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9885402019259393</v>
+        <v>0.9879761672014273</v>
       </c>
       <c r="E3" t="n">
-        <v>0.98856</v>
+        <v>0.988</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005498259345352276</v>
+        <v>0.005501199048875052</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1459483050754286</v>
+        <v>0.1473497662772169</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9847674017298449</v>
+        <v>0.9847662136617675</v>
       </c>
       <c r="I3" t="n">
         <v>0.9848</v>
@@ -2292,28 +2234,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.003981533236463244</v>
+        <v>0.004003460161715947</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1113517412932647</v>
+        <v>0.1122156868921335</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9890246047155991</v>
+        <v>0.989024376978427</v>
       </c>
       <c r="E4" t="n">
         <v>0.98904</v>
       </c>
       <c r="F4" t="n">
-        <v>0.005103851147343626</v>
+        <v>0.005169193603803017</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1362768919425163</v>
+        <v>0.1385653650474442</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9851702189427231</v>
+        <v>0.9847714352958755</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9852</v>
+        <v>0.9848</v>
       </c>
     </row>
     <row r="5">
@@ -2321,25 +2263,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.003728593831594079</v>
+        <v>0.003775167694643648</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1044498580803706</v>
+        <v>0.1061279521617609</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9893468974772563</v>
+        <v>0.9891870066389895</v>
       </c>
       <c r="E5" t="n">
-        <v>0.98936</v>
+        <v>0.9892</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004788731604360981</v>
+        <v>0.004914351464298847</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1286258848293845</v>
+        <v>0.1320082040921257</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9851674411215964</v>
+        <v>0.9851725840134232</v>
       </c>
       <c r="I5" t="n">
         <v>0.9852</v>
@@ -2350,28 +2292,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.003538382369644143</v>
+        <v>0.003620007809550083</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09891130747565251</v>
+        <v>0.1015498406721256</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9899107252453344</v>
+        <v>0.9895898420463464</v>
       </c>
       <c r="E6" t="n">
-        <v>0.98992</v>
+        <v>0.9896</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0045455244438496</v>
+        <v>0.004715829368730018</v>
       </c>
       <c r="G6" t="n">
-        <v>0.122568848599826</v>
+        <v>0.1269133916583927</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9863702487700861</v>
+        <v>0.9851766924632809</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9864000000000001</v>
+        <v>0.9852</v>
       </c>
     </row>
     <row r="7">
@@ -2379,28 +2321,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.003392474342065523</v>
+        <v>0.003505457701363526</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09445772313185685</v>
+        <v>0.09789597253906131</v>
       </c>
       <c r="D7" t="n">
-        <v>0.98999164168634</v>
+        <v>0.9898316929144176</v>
       </c>
       <c r="E7" t="n">
-        <v>0.99</v>
+        <v>0.9898400000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.004356479412454705</v>
+        <v>0.004558106726849155</v>
       </c>
       <c r="G7" t="n">
-        <v>0.117736123317202</v>
+        <v>0.1228648157611022</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9867742844465353</v>
+        <v>0.985978699289384</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9868</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="8">
@@ -2408,28 +2350,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.003281055525251386</v>
+        <v>0.003413444768389328</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09094505990601738</v>
+        <v>0.09484451217098973</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9903116976051496</v>
+        <v>0.9899916274347106</v>
       </c>
       <c r="E8" t="n">
-        <v>0.99032</v>
+        <v>0.99</v>
       </c>
       <c r="F8" t="n">
-        <v>0.004210901160711242</v>
+        <v>0.004427065124844843</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1139848186078333</v>
+        <v>0.1195534140778292</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9879758145880535</v>
+        <v>0.9867787262414597</v>
       </c>
       <c r="I8" t="n">
-        <v>0.988</v>
+        <v>0.9868</v>
       </c>
     </row>
     <row r="9">
@@ -2437,28 +2379,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.003195674654748745</v>
+        <v>0.003333834283669519</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08819414823766719</v>
+        <v>0.09219218842678811</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9902313339274063</v>
+        <v>0.9899119247019549</v>
       </c>
       <c r="E9" t="n">
-        <v>0.99024</v>
+        <v>0.98992</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00410006624326106</v>
+        <v>0.00431093133451821</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1111432843348618</v>
+        <v>0.1167351983424702</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9879758145880535</v>
+        <v>0.9875810766406599</v>
       </c>
       <c r="I9" t="n">
-        <v>0.988</v>
+        <v>0.9876</v>
       </c>
     </row>
     <row r="10">
@@ -2466,28 +2408,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.003128758452745847</v>
+        <v>0.003262193163611146</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08601201049404189</v>
+        <v>0.08983821827041938</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9905521665800071</v>
+        <v>0.9899119831524683</v>
       </c>
       <c r="E10" t="n">
-        <v>0.99056</v>
+        <v>0.98992</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004015037228090199</v>
+        <v>0.004203783241762969</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1089961465399992</v>
+        <v>0.1142292757812949</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9883794145749109</v>
+        <v>0.9879810770358841</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9883999999999999</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="11">
@@ -2495,25 +2437,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.003074400801945008</v>
+        <v>0.003199863079062388</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08423645972541319</v>
+        <v>0.08779197749559021</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9909532734688785</v>
+        <v>0.9900710792427269</v>
       </c>
       <c r="E11" t="n">
-        <v>0.99096</v>
+        <v>0.99008</v>
       </c>
       <c r="F11" t="n">
-        <v>0.003948601986531773</v>
+        <v>0.004106455586742949</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1073527144264703</v>
+        <v>0.1119385120732815</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9883794145749109</v>
+        <v>0.9883802786326903</v>
       </c>
       <c r="I11" t="n">
         <v>0.9883999999999999</v>
@@ -2524,22 +2466,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.003028822997542247</v>
+        <v>0.00314610722247395</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08275500341608792</v>
+        <v>0.0860163750914851</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9911148086837134</v>
+        <v>0.9904717837112408</v>
       </c>
       <c r="E12" t="n">
-        <v>0.99112</v>
+        <v>0.99048</v>
       </c>
       <c r="F12" t="n">
-        <v>0.003896357237932823</v>
+        <v>0.004022124287195466</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1060853415450499</v>
+        <v>0.109899578648233</v>
       </c>
       <c r="H12" t="n">
         <v>0.9883794145749109</v>
@@ -2553,22 +2495,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.002989927685114172</v>
+        <v>0.00309866743572436</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08149780507492203</v>
+        <v>0.08445246795607875</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9911143983017077</v>
+        <v>0.9905528341365002</v>
       </c>
       <c r="E13" t="n">
-        <v>0.99112</v>
+        <v>0.99056</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003855873160351278</v>
+        <v>0.003951330657975102</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1051199951912284</v>
+        <v>0.1081248690067979</v>
       </c>
       <c r="H13" t="n">
         <v>0.9883794145749109</v>
@@ -2582,28 +2524,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.002956300665250273</v>
+        <v>0.003056062028103997</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0804168787330681</v>
+        <v>0.08305963403584866</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9911952404401699</v>
+        <v>0.9906337562635006</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9912</v>
+        <v>0.99064</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003825270422751794</v>
+        <v>0.003892691698404644</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1044012839071442</v>
+        <v>0.1065896124983099</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9891854174893731</v>
+        <v>0.9883794145749109</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9892</v>
+        <v>0.9883999999999999</v>
       </c>
     </row>
     <row r="15">
@@ -2611,27 +2553,143 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.002926726165607786</v>
+        <v>0.003017442882894769</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07947399788621054</v>
+        <v>0.08181182267114623</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9912751926127763</v>
+        <v>0.9907137111721782</v>
       </c>
       <c r="E15" t="n">
-        <v>0.99128</v>
+        <v>0.99072</v>
       </c>
       <c r="F15" t="n">
-        <v>0.003802732431540382</v>
+        <v>0.003844632900574513</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1038763144664496</v>
+        <v>0.1052673834853731</v>
       </c>
       <c r="H15" t="n">
+        <v>0.9887842754342919</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.9888</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.002982224479383234</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.08068942942566877</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9908736199493037</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.99088</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.003805831021213922</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.104135648397762</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.9887842754342919</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.9888</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.002949810502998513</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.07967228745152449</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9907951235288319</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9908</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.003775063397736104</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.1031709757217914</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.9887842754342919</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.9888</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.002919650111279874</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.07874084607142272</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9908745558622165</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.99088</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.003750992257361174</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.1023474445839197</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.9887842754342919</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.9888</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.002891551696203336</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.07788490633742595</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9909546842503399</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.99096</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.003732192971411061</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.1016431158334164</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.9891854174893731</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I19" t="n">
         <v>0.9892</v>
       </c>
     </row>
@@ -2646,7 +2704,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2701,28 +2759,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.004810943786830469</v>
+        <v>0.004695366075237638</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1347376454244802</v>
+        <v>0.1312176253717796</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9862814371187231</v>
+        <v>0.9864479549054286</v>
       </c>
       <c r="E2" t="n">
-        <v>0.98632</v>
+        <v>0.98648</v>
       </c>
       <c r="F2" t="n">
-        <v>0.006000015786609567</v>
+        <v>0.005743948228198298</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1601522228390235</v>
+        <v>0.1525803254472838</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9839536477663209</v>
+        <v>0.9843661479965551</v>
       </c>
       <c r="I2" t="n">
-        <v>0.984</v>
+        <v>0.9844000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -2730,28 +2788,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.004270897240469994</v>
+        <v>0.004263515082289186</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1197774076672561</v>
+        <v>0.1189787742518238</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9879804564738505</v>
+        <v>0.9879834701832954</v>
       </c>
       <c r="E3" t="n">
         <v>0.988</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005557137481495125</v>
+        <v>0.005370563010619769</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1476339170504353</v>
+        <v>0.1426111628768059</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9847714352958755</v>
+        <v>0.9859738433584818</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9848</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="4">
@@ -2759,28 +2817,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.003956818290331732</v>
+        <v>0.004003600208202731</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1117259422159267</v>
+        <v>0.1121568792412102</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9889440141957131</v>
+        <v>0.9891096354318932</v>
       </c>
       <c r="E4" t="n">
-        <v>0.98896</v>
+        <v>0.98912</v>
       </c>
       <c r="F4" t="n">
-        <v>0.005265426187769967</v>
+        <v>0.005119706107031965</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1398654222429651</v>
+        <v>0.1362581661948996</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9847714352958755</v>
+        <v>0.9859738433584818</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9848</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="5">
@@ -2788,28 +2846,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.003754466593621707</v>
+        <v>0.003832282465773116</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1061751424788653</v>
+        <v>0.1072556664094437</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9891877743391765</v>
+        <v>0.9895926953826983</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9892</v>
+        <v>0.9896</v>
       </c>
       <c r="F5" t="n">
-        <v>0.005038660243309973</v>
+        <v>0.004918311503385349</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1340622804046118</v>
+        <v>0.1313174804302669</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9851725840134232</v>
+        <v>0.9847734660598771</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9852</v>
+        <v>0.9848</v>
       </c>
     </row>
     <row r="6">
@@ -2817,28 +2875,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.003611165459159473</v>
+        <v>0.003691605995036091</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1018666296745664</v>
+        <v>0.1029550047246527</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9895908594715932</v>
+        <v>0.9895943698695072</v>
       </c>
       <c r="E6" t="n">
         <v>0.9896</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004849196997900843</v>
+        <v>0.00473188012199676</v>
       </c>
       <c r="G6" t="n">
-        <v>0.129370607990403</v>
+        <v>0.1267536008413134</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9855775170377974</v>
+        <v>0.9851726744255955</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9856</v>
+        <v>0.9852</v>
       </c>
     </row>
     <row r="7">
@@ -2846,28 +2904,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.003497901149062471</v>
+        <v>0.003559868695643413</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0982502498115836</v>
+        <v>0.09887350050797625</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9895910307170862</v>
+        <v>0.9897545488586328</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9896</v>
+        <v>0.98976</v>
       </c>
       <c r="F7" t="n">
-        <v>0.004677306808076718</v>
+        <v>0.004554248259641696</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1252507747910321</v>
+        <v>0.1223010373059806</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9863783162529585</v>
+        <v>0.9859750824545046</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9864000000000001</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="8">
@@ -2875,28 +2933,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.003403669654449111</v>
+        <v>0.003443401700758568</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09514561661887613</v>
+        <v>0.09526086011450138</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9896726874423306</v>
+        <v>0.9897538597474445</v>
       </c>
       <c r="E8" t="n">
-        <v>0.98968</v>
+        <v>0.98976</v>
       </c>
       <c r="F8" t="n">
-        <v>0.004516399119771764</v>
+        <v>0.004399274662799398</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1214949700295196</v>
+        <v>0.1183411907340048</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9863783162529585</v>
+        <v>0.9867787262414597</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9864000000000001</v>
+        <v>0.9868</v>
       </c>
     </row>
     <row r="9">
@@ -2904,28 +2962,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.003325566258689573</v>
+        <v>0.003346719219045462</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0925040017075187</v>
+        <v>0.09225338644028409</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9895131139337648</v>
+        <v>0.9899137738978411</v>
       </c>
       <c r="E9" t="n">
-        <v>0.98952</v>
+        <v>0.98992</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004372930196202945</v>
+        <v>0.004273214111037063</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1181606564370373</v>
+        <v>0.1151045956603714</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9871787266366837</v>
+        <v>0.9867787262414597</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9872</v>
+        <v>0.9868</v>
       </c>
     </row>
     <row r="10">
@@ -2933,28 +2991,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.003261722960140642</v>
+        <v>0.003267911213389932</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09028129881899212</v>
+        <v>0.08978971168779051</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9895931998498178</v>
+        <v>0.9901550902177014</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9896</v>
+        <v>0.99016</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004252812327468635</v>
+        <v>0.004173302938964614</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1153197202573418</v>
+        <v>0.1125389835240491</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9875799105003347</v>
+        <v>0.9871799101051104</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9876</v>
+        <v>0.9872</v>
       </c>
     </row>
     <row r="11">
@@ -2962,28 +3020,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.003210503835082042</v>
+        <v>0.003203382735886064</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08843890116545434</v>
+        <v>0.08775838204366865</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9899946635371073</v>
+        <v>0.9904749554800224</v>
       </c>
       <c r="E11" t="n">
-        <v>0.99</v>
+        <v>0.99048</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00415651305716146</v>
+        <v>0.004093933551080507</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1129863891621273</v>
+        <v>0.110501051527119</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9879810770358841</v>
+        <v>0.9875843466879715</v>
       </c>
       <c r="I11" t="n">
-        <v>0.988</v>
+        <v>0.9876</v>
       </c>
     </row>
     <row r="12">
@@ -2991,28 +3049,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.003169419592361215</v>
+        <v>0.003150800704871923</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08691553273366572</v>
+        <v>0.08608536504682873</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9901539919971718</v>
+        <v>0.9905554485087926</v>
       </c>
       <c r="E12" t="n">
-        <v>0.99016</v>
+        <v>0.99056</v>
       </c>
       <c r="F12" t="n">
-        <v>0.004080522972464219</v>
+        <v>0.004030684551992948</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1111046818403659</v>
+        <v>0.1088903759827052</v>
       </c>
       <c r="H12" t="n">
-        <v>0.988785520144388</v>
+        <v>0.9871839161091165</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9888</v>
+        <v>0.9872</v>
       </c>
     </row>
     <row r="13">
@@ -3020,28 +3078,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.003135024154398507</v>
+        <v>0.003108355664209855</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0856219980568986</v>
+        <v>0.0847165768461126</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9902342451953661</v>
+        <v>0.9907149495006389</v>
       </c>
       <c r="E13" t="n">
-        <v>0.99024</v>
+        <v>0.99072</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004019823268747458</v>
+        <v>0.003981038534771168</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1095712122712033</v>
+        <v>0.1076473231060523</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9887835494776077</v>
+        <v>0.9871839161091165</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9888</v>
+        <v>0.9872</v>
       </c>
     </row>
     <row r="14">
@@ -3049,28 +3107,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.003104180103407747</v>
+        <v>0.003073742704868014</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0844738465160227</v>
+        <v>0.0835879504954202</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9903135442469825</v>
+        <v>0.9907144161760583</v>
       </c>
       <c r="E14" t="n">
-        <v>0.99032</v>
+        <v>0.99072</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003970044642199415</v>
+        <v>0.003943094351296157</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1082890905867956</v>
+        <v>0.1067124939808645</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9887835494776077</v>
+        <v>0.9875839165043407</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9888</v>
+        <v>0.9876</v>
       </c>
     </row>
     <row r="15">
@@ -3078,28 +3136,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.003074778361351214</v>
+        <v>0.003044580514590009</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08341250515843962</v>
+        <v>0.08263315448128761</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9903941179301112</v>
+        <v>0.9907944078756138</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9903999999999999</v>
+        <v>0.9908</v>
       </c>
       <c r="F15" t="n">
-        <v>0.003928325587423911</v>
+        <v>0.00391440289565447</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1071964681365734</v>
+        <v>0.1060123756176953</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9887835494776077</v>
+        <v>0.9879831196963582</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9888</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="16">
@@ -3107,85 +3165,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.003045879229397472</v>
+        <v>0.003018807552812104</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08241022509205431</v>
+        <v>0.08179447581437277</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9903941179301112</v>
+        <v>0.9907944078756138</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9903999999999999</v>
+        <v>0.9908</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003893243047925245</v>
+        <v>0.003891783353384285</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1062659740353833</v>
+        <v>0.1054640253788792</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9883831188987526</v>
+        <v>0.9879831196963582</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9883999999999999</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.003017474749228173</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.08146296573220867</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.9906350528952036</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.99064</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.00386427194148827</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.1054893829676404</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.9883831188987526</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.9883999999999999</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.00298996208324334</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.08057610413499751</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.9907150452324366</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.99072</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.003841100155862899</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.1048627471787053</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.9879819454663747</v>
-      </c>
-      <c r="I18" t="n">
         <v>0.988</v>
       </c>
     </row>
